--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.136249031347456</v>
+        <v>0.1362707769444083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08583069893542726</v>
+        <v>0.0822506311893783</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04187105322079731</v>
+        <v>0.1042329974676029</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03052153475577874</v>
+        <v>0.01831698718406998</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0302393083728705</v>
+        <v>0.00408416395639046</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02904688599150466</v>
+        <v>0.04404604521859395</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008109328367907813</v>
+        <v>0.05543401645922288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04808345872052011</v>
+        <v>0.01146965178044767</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03624892198059392</v>
+        <v>0.03849240710881554</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08019566251652145</v>
+        <v>0.002549837074978546</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0721905206646242</v>
+        <v>0.06529580685451415</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06626746229349056</v>
+        <v>0.04625379783126678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04944402542188947</v>
+        <v>0.02269537188023572</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0825173383945511</v>
+        <v>0.09590023800318198</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01572015419228187</v>
+        <v>0.0009773318694365899</v>
       </c>
       <c r="T2" t="n">
-        <v>0.008335220219340167</v>
+        <v>0.005589047042195426</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02473062893058066</v>
+        <v>0.02099224061587326</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008296778210925006</v>
+        <v>0.08856788829708893</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08010113484848942</v>
+        <v>0.05249983309703014</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05720197672050132</v>
+        <v>0.04347075817370145</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0232763005481817</v>
+        <v>0.06830330813531661</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03945465690526581</v>
+        <v>0.04220467949492702</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07208739378750385</v>
+        <v>0.05849251813818164</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01022955600045308</v>
+        <v>0.02788044312754994</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1074944436305246</v>
+        <v>0.08780144004532819</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1760185783024349</v>
+        <v>0.1605381650879977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005116210106647512</v>
+        <v>0.04570320366615495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.124487623606137</v>
+        <v>0.03504786830571457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009795790184034231</v>
+        <v>0.02489663250673697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01417959873045213</v>
+        <v>0.03234880775220983</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04105789972691554</v>
+        <v>0.04921534060706544</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03819481926215997</v>
+        <v>0.05370246199375305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04036660913574589</v>
+        <v>0.02822319724382517</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1102087859080611</v>
+        <v>0.09155589033794358</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04171227321002328</v>
+        <v>0.09220552209334769</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008274502250977945</v>
+        <v>0.02863372340527128</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04676611737323441</v>
+        <v>0.01865040982955672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003316638890858316</v>
+        <v>0.07303574373114659</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03019943430412937</v>
+        <v>0.08697773359493993</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002280892141257814</v>
+        <v>0.00174386344435671</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01206381104368445</v>
+        <v>0.001999405334929861</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005767928571266717</v>
+        <v>0.0644321591105541</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06245288087556104</v>
+        <v>0.07332663522893743</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09750015747974841</v>
+        <v>0.05969834934089552</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07458724378781512</v>
+        <v>0.005925836161052743</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1035876719428595</v>
+        <v>0.006011120084978287</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.004307655247590597</v>
+        <v>0.002319101285280859</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.007993394146159431</v>
+        <v>0.02947957602974884</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1157820620746802</v>
+        <v>0.09486741891160001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05828124581469027</v>
+        <v>0.09202401271684942</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1427730285368231</v>
+        <v>0.1410724573028578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08997290565314016</v>
+        <v>0.02601090638277364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05819807917135764</v>
+        <v>0.04256703533889655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001870017898302638</v>
+        <v>0.07993065924782287</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0604453980398723</v>
+        <v>0.06942088440571274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05369276640120617</v>
+        <v>0.05672528021197552</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02927112459664468</v>
+        <v>0.03301731545108957</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001265570050815277</v>
+        <v>0.003255664875699855</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06138167174469251</v>
+        <v>0.04387751254764605</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06131549826129588</v>
+        <v>0.05210197246773712</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06528681207557986</v>
+        <v>0.01621324098721474</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07223274268033497</v>
+        <v>0.07051984767386059</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06488860586589472</v>
+        <v>0.02732726847330595</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07202623694725703</v>
+        <v>0.09198807279508601</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08558174890480078</v>
+        <v>0.07133434187653571</v>
       </c>
       <c r="T4" t="n">
-        <v>0.007634940139657737</v>
+        <v>0.01369970121549017</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0222699295707351</v>
+        <v>0.06951028376446622</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05209968780264101</v>
+        <v>0.03126061629495053</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0305588582752837</v>
+        <v>0.02285723878525124</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02952124209443182</v>
+        <v>0.05158467208650169</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0565667373291794</v>
+        <v>0.04769791281496649</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.008557799996257479</v>
+        <v>0.07225583286504539</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.002783907126166787</v>
+        <v>0.002041077564421187</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0125777193744524</v>
+        <v>0.004802661873549725</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01747796208144243</v>
+        <v>0.009203472610279827</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1663306111114385</v>
+        <v>0.1469772034802011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0294619603585181</v>
+        <v>0.05104891908562674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009790836887000933</v>
+        <v>0.01423946497894077</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04485101847061109</v>
+        <v>0.08720641529411348</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05043269538671972</v>
+        <v>0.0786830650274018</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06054761664408261</v>
+        <v>0.0464031122308425</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006294219402838157</v>
+        <v>0.005330108145294101</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01935948498672169</v>
+        <v>0.01952718086221047</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05596014522901149</v>
+        <v>0.06344355309629336</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02322563412178637</v>
+        <v>0.01801207754520475</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0414301589115299</v>
+        <v>0.05748671647916571</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02016004295089298</v>
+        <v>0.01715626774026754</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09626499867290256</v>
+        <v>0.08062541210813427</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09394394553301824</v>
+        <v>0.08314599745924717</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05553578311779307</v>
+        <v>0.09054882526965037</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0433283335757776</v>
+        <v>0.0242983191874537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004915541995514815</v>
+        <v>0.06985732277739985</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02306778960655334</v>
+        <v>0.007625596192572621</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06266201855154761</v>
+        <v>0.01986058789253748</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02631613760781462</v>
+        <v>0.1000246417293478</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1075780667828725</v>
+        <v>0.03478046597481979</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.008350360830294562</v>
+        <v>0.002284015382683692</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01553677604112019</v>
+        <v>0.0135069369090036</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.100986434335078</v>
+        <v>0.01490499863178853</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0702312787428535</v>
+        <v>0.05296606007633486</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1432251725940758</v>
+        <v>0.1409471068908341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07630899160233794</v>
+        <v>0.09555464638698336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08892708173519334</v>
+        <v>0.05067199379024266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08948491382841978</v>
+        <v>0.01726771255065666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05908571985155631</v>
+        <v>0.03632635290151816</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07593186133577155</v>
+        <v>0.07654118454632274</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01904365132699027</v>
+        <v>0.07883697029224865</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04196929166421573</v>
+        <v>0.0223495228261265</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002980241474847364</v>
+        <v>0.0259834248842723</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01724993906520886</v>
+        <v>0.005326299455943073</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04918958370836284</v>
+        <v>0.0884988273994525</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006098926638279275</v>
+        <v>0.02932229632897722</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04280720624846995</v>
+        <v>0.0318391867020549</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0703511823945402</v>
+        <v>0.03017994732967682</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0638243101044341</v>
+        <v>0.08353183529995108</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06741640328935736</v>
+        <v>0.08612958015380019</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05006860215505498</v>
+        <v>0.04620277384977851</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03179933166645146</v>
+        <v>0.01941715284096291</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03729657047836746</v>
+        <v>0.08165780792894542</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02300480207216767</v>
+        <v>0.01155461883367838</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01672312996529576</v>
+        <v>0.004886329487160394</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06289941377625731</v>
+        <v>0.06499792054851596</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00595801368158445</v>
+        <v>0.0008682877283590554</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001580831936835986</v>
+        <v>0.01205532793437251</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2212184967282149</v>
+        <v>-0.2254735375273857</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1799936480153945</v>
+        <v>0.1976420229974838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07405892073754121</v>
+        <v>0.03598101421425618</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03691048519222209</v>
+        <v>0.00775006451584575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0425837354891371</v>
+        <v>0.08128877969791896</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09411449466680383</v>
+        <v>0.04601891559421297</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007906624129083278</v>
+        <v>0.04047692951410715</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08627270142439013</v>
+        <v>0.02452029980278523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07980319362949066</v>
+        <v>0.07515690301189877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005540890707131181</v>
+        <v>0.002631217882046942</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04985196018084102</v>
+        <v>0.01259397575804029</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01219090814909517</v>
+        <v>0.07099678604597853</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02281322435541161</v>
+        <v>0.001125769403144216</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0835263089392871</v>
+        <v>0.1121071359180841</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01238435446500187</v>
+        <v>0.07479938819655424</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05390656503948285</v>
+        <v>0.02087239190850412</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03460380608026094</v>
+        <v>0.01670768800680253</v>
       </c>
       <c r="U7" t="n">
-        <v>0.012275505044792</v>
+        <v>0.006766742883677845</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009850336221533243</v>
+        <v>0.09330356643086848</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07667041235483951</v>
+        <v>0.007039133006889626</v>
       </c>
       <c r="X7" t="n">
-        <v>0.003749946078750494</v>
+        <v>0.04221377670556427</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02157016040629718</v>
+        <v>0.004564909486439088</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07683950881781047</v>
+        <v>0.02170393621958919</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01109050347230926</v>
+        <v>0.117548273759239</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09148545441848784</v>
+        <v>0.08383240203755236</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2109967430759729</v>
+        <v>-0.2606665125120894</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1534463022200636</v>
+        <v>0.1560149876477624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05888051159641879</v>
+        <v>0.05456624053785246</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01568520859957354</v>
+        <v>0.01867741578210056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03529029608016561</v>
+        <v>0.05794586297093578</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03949510533686428</v>
+        <v>0.07550432859481651</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007039944223810337</v>
+        <v>0.02045193131291147</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01566780549524631</v>
+        <v>0.00076095843873041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001541272473712797</v>
+        <v>0.008343221576401917</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01585795482064326</v>
+        <v>0.02450118277148269</v>
       </c>
       <c r="N8" t="n">
-        <v>0.008412534968297162</v>
+        <v>0.002812363313433482</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05138084738394734</v>
+        <v>0.03750366266123673</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01152874709253797</v>
+        <v>0.04560566121545898</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0343381081974586</v>
+        <v>0.007957416741108985</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0735064184552873</v>
+        <v>0.09690633563985221</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01166465639169934</v>
+        <v>0.06082771762016904</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08831387845999229</v>
+        <v>0.07227213257208381</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09457131506208441</v>
+        <v>0.04112316056747856</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004371822234843077</v>
+        <v>0.02403580721659718</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03458555667643288</v>
+        <v>0.005942625406099325</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06632914289138589</v>
+        <v>0.04394375657750801</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1054506934182741</v>
+        <v>0.08699145104266398</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1058787859632747</v>
+        <v>0.04308521684852202</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01546037791988721</v>
+        <v>0.0739897538160582</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1047490162581627</v>
+        <v>0.09625179677649745</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3855505134397227</v>
+        <v>-0.3924973142448263</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2103267361388846</v>
+        <v>0.1973596246254475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03658935928243228</v>
+        <v>0.04985366131168137</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005835877298069353</v>
+        <v>0.004157446685273647</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1184305641816943</v>
+        <v>0.07958874950580117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07645783103805177</v>
+        <v>0.09637051293686472</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008330642442800304</v>
+        <v>0.002791864247527511</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01170776139219531</v>
+        <v>0.01186998287035744</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05695215528236564</v>
+        <v>0.08307682925084386</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004623709790210309</v>
+        <v>0.006084483425071607</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05512960611983841</v>
+        <v>0.03675045780265283</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09962518293232449</v>
+        <v>0.02315195895952664</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01322912785442078</v>
+        <v>0.02140567186215667</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.118091467793953</v>
+        <v>0.09409732172108065</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01689453312338596</v>
+        <v>0.0594506737613431</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01165379344032678</v>
+        <v>0.02806065512424223</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1215847624723992</v>
+        <v>0.008891941644931447</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01591335196744423</v>
+        <v>0.04836766165773421</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00362379034530925</v>
+        <v>0.004899407749023241</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008310255368748987</v>
+        <v>0.03048881047956156</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007756277353222198</v>
+        <v>0.01719931478961561</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0638570540000637</v>
+        <v>0.09579660478830143</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02292269052122017</v>
+        <v>0.05488834738508135</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06041245217154741</v>
+        <v>0.07568129136608803</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06206775382797617</v>
+        <v>0.06707635067523965</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4685764407504819</v>
+        <v>-0.352611259055911</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2639542921718636</v>
+        <v>0.2585326136967236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04826849720492624</v>
+        <v>0.09639110495514444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01622207220353581</v>
+        <v>0.01481915575221035</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005167604974224593</v>
+        <v>0.02511485483112801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003991824794857444</v>
+        <v>0.04808204352056041</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05578675575858832</v>
+        <v>0.01276610624765155</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04852506777622021</v>
+        <v>0.009688813662262751</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01372881337002173</v>
+        <v>0.02725989694877626</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01238069533166062</v>
+        <v>0.002227261723096015</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01857553902063519</v>
+        <v>0.01896315431656226</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06031956663064379</v>
+        <v>0.02614738025973627</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05311734646260849</v>
+        <v>0.07047003051998729</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02902800232322188</v>
+        <v>0.007139370912585329</v>
       </c>
       <c r="R10" t="n">
-        <v>0.116943158762581</v>
+        <v>0.06279548200291603</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05439183339372936</v>
+        <v>0.09233617015884424</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03968530227971909</v>
+        <v>0.01231013895077603</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03960149510514242</v>
+        <v>0.08154398503864585</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000950400633914926</v>
+        <v>0.0155958938328</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09764340679469156</v>
+        <v>0.08778063130136643</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1020605103619931</v>
+        <v>0.06349943397023318</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02739664292334246</v>
+        <v>0.09058574755039776</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05198403601482235</v>
+        <v>0.05726369270984998</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00803878858978645</v>
+        <v>0.05684995228546151</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09619263928913301</v>
+        <v>0.02036969854900816</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03018081137883186</v>
+        <v>-0.0292761444383459</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3916263870706697</v>
+        <v>0.3973796842159626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06033675667450524</v>
+        <v>0.008447893815185766</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0262676997130334</v>
+        <v>0.003659858617952495</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06135109915765903</v>
+        <v>0.03232686621410554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02846418829358958</v>
+        <v>0.002672077631026876</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01902243209396116</v>
+        <v>0.02412164364630526</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01575922215506311</v>
+        <v>0.1130789581222567</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004924936238176563</v>
+        <v>0.0002595473324261644</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04636145906957419</v>
+        <v>0.07413297569462958</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05820351130186449</v>
+        <v>0.01063409212040795</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006608743931035257</v>
+        <v>0.01878977905479183</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03203166097572348</v>
+        <v>0.09381650838652227</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05725361016676554</v>
+        <v>0.0544452850306556</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006514243614581494</v>
+        <v>0.03038603457397302</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003193696677255458</v>
+        <v>0.06437503127629451</v>
       </c>
       <c r="T11" t="n">
-        <v>0.007563861131811879</v>
+        <v>0.04235264118449799</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09486368983170697</v>
+        <v>0.02064071503555103</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1207915175137945</v>
+        <v>0.1174466187703227</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06508499489896952</v>
+        <v>0.02345064078782768</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002874589944944315</v>
+        <v>0.0201296812397599</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07455148460304846</v>
+        <v>0.05121148251042788</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07022854858976867</v>
+        <v>0.06377582172798626</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01180606470544147</v>
+        <v>0.05766038779338883</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1259419887177262</v>
+        <v>0.072185459433704</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1379751710994229</v>
+        <v>0.04262529026098123</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2645507240615178</v>
+        <v>0.2620506564986694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02096920939590437</v>
+        <v>0.04704207018248822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01639254035146425</v>
+        <v>0.002863555332591017</v>
       </c>
       <c r="H12" t="n">
-        <v>0.045454805579987</v>
+        <v>0.06853773526127122</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03951386697376522</v>
+        <v>0.0655691517150496</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06795649335553872</v>
+        <v>0.06740413152287576</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01022675937592502</v>
+        <v>0.00808468237106031</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00907812039208012</v>
+        <v>0.01463803969507383</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02926664650081521</v>
+        <v>0.03604609660211216</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002562472505081332</v>
+        <v>0.02103550747911031</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09443435921802194</v>
+        <v>0.008098105410225584</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05767934038921414</v>
+        <v>0.03157438477018353</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04060196227026877</v>
+        <v>0.02672148857731638</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06939471691668005</v>
+        <v>0.06470205993154578</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0796313917580022</v>
+        <v>0.07927523532355636</v>
       </c>
       <c r="T12" t="n">
-        <v>0.003947406561051453</v>
+        <v>0.04500937933797249</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1009949833669092</v>
+        <v>0.05686239067711484</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00792147600834469</v>
+        <v>0.002667141303102143</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05707973093163596</v>
+        <v>0.08720310205735288</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07466837194830289</v>
+        <v>0.0977737056202926</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07809601977444311</v>
+        <v>0.0447197739261657</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.07641424737810236</v>
+        <v>0.05389608852849087</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01327193516748901</v>
+        <v>0.02225876494472354</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.004443143880972876</v>
+        <v>0.04801740943032493</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2223332120200316</v>
+        <v>0.2178775189809439</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3427485308635439</v>
+        <v>0.3618422662219663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04853914987081575</v>
+        <v>0.02754194121021197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01497900026690169</v>
+        <v>0.01102507243834539</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09484979309303085</v>
+        <v>0.09237146999560344</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02106784028067658</v>
+        <v>0.04159894647586582</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01142996171652873</v>
+        <v>0.03082746203024788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01602658046425889</v>
+        <v>0.05727362534883914</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03182488493265419</v>
+        <v>0.08826209437994502</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04287186304495107</v>
+        <v>0.02131063651584313</v>
       </c>
       <c r="N13" t="n">
-        <v>0.114039492678354</v>
+        <v>0.09470820272620145</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04330992464581759</v>
+        <v>0.0354580335553254</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03704575728768286</v>
+        <v>0.04601062670879284</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02013409289780298</v>
+        <v>0.006038044571571238</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09877786395057965</v>
+        <v>0.02744854236852126</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002341395524836204</v>
+        <v>0.04450994909547356</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04496548637714916</v>
+        <v>0.007307434220398117</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08361490593622585</v>
+        <v>0.01824991494976804</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1119173363282826</v>
+        <v>0.1179016416998344</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06921716481239525</v>
+        <v>0.0212344731462078</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02973163877079586</v>
+        <v>0.06861934649246694</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02132562400502938</v>
+        <v>0.04423680362518653</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01285505766194325</v>
+        <v>0.05021317804950811</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01519385755412234</v>
+        <v>0.006602581756871167</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01394132789916524</v>
+        <v>0.04124997863897134</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2690534965014146</v>
+        <v>0.286535152397906</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2804332145644228</v>
+        <v>0.2791432653147494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03719991364736261</v>
+        <v>0.02275876376989705</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01209159957093994</v>
+        <v>0.006716987864868169</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0392494984919818</v>
+        <v>0.04587778563714526</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01725578599109999</v>
+        <v>0.01199995458054296</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02108113606213979</v>
+        <v>0.06416760972707343</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08922186332081361</v>
+        <v>0.03005056034806122</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03240615689555556</v>
+        <v>0.02530286686779775</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001444666100589058</v>
+        <v>0.004127405156076023</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006716800237514916</v>
+        <v>0.02858424080522887</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01599981012737747</v>
+        <v>0.01995202483909141</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1125862149518059</v>
+        <v>0.09321984280791296</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0301324364390275</v>
+        <v>0.09593600185028343</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09922421399857727</v>
+        <v>0.09221447319940744</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05699493536456249</v>
+        <v>0.04018058302608552</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03395755803392884</v>
+        <v>0.01082737490678581</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08974068539700059</v>
+        <v>0.01394700774333308</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01615364716437742</v>
+        <v>0.01267256611303987</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05126565096040672</v>
+        <v>0.1023793413421936</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02571775895170066</v>
+        <v>0.0994949144439462</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07892874515811064</v>
+        <v>0.03200154047406312</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03505550237252342</v>
+        <v>0.03320761573132371</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04038057765143997</v>
+        <v>0.0529404129864265</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05719484311116381</v>
+        <v>0.06144012577941662</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.0009739472192267073</v>
+        <v>-0.01895751064732112</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3294354990209786</v>
+        <v>0.3351860513785595</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06167087005877145</v>
+        <v>0.01979778158572841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002333639844150276</v>
+        <v>0.005734253123363839</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006723520808563157</v>
+        <v>0.07139662745589762</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02717715387541475</v>
+        <v>0.05506315335967066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08118126888241277</v>
+        <v>0.06453406283144444</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04632456953191508</v>
+        <v>0.00318578157610109</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01440120526943319</v>
+        <v>0.01013468881884015</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07506547046832987</v>
+        <v>0.01544648941563263</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0308634047596151</v>
+        <v>0.08482869298347885</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03276213099719479</v>
+        <v>0.0001943488837839762</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00223807435733973</v>
+        <v>0.01852222369524319</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006596318480042451</v>
+        <v>0.00123924229647341</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1070082183640339</v>
+        <v>0.08195034454649938</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1049841885250967</v>
+        <v>0.0538965707785242</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02021091207816249</v>
+        <v>0.03911558113237026</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008971256141895128</v>
+        <v>0.09319529471740517</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1206650236653322</v>
+        <v>0.09279658674146636</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06633535345523442</v>
+        <v>0.06448532802150367</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0259249196859586</v>
+        <v>0.005487074812465103</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02909172638940793</v>
+        <v>0.001452950901533091</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1004939185091441</v>
+        <v>0.09432458758004215</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.005300465740333026</v>
+        <v>0.04982964165129661</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02367639011221882</v>
+        <v>0.0733886930912359</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.03531415022695309</v>
+        <v>0.02728944632635594</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3131478825845727</v>
+        <v>0.2939232881720686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04795815573306482</v>
+        <v>0.08683469142157567</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05407229752591427</v>
+        <v>0.005692370643016797</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07228586524124414</v>
+        <v>0.01040855814282912</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06889006835707105</v>
+        <v>0.04476791528210761</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01486657852668817</v>
+        <v>0.02735602466786846</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007850028456608586</v>
+        <v>0.0009528092674497482</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01805981856978034</v>
+        <v>0.07851928494297102</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06037066923344137</v>
+        <v>0.03050943073146333</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002644597729341216</v>
+        <v>0.009339975729154952</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0523904705002922</v>
+        <v>0.01157660074360645</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07460775566960508</v>
+        <v>0.08577960880178627</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0510845891956749</v>
+        <v>0.0501037108092711</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0684481938529734</v>
+        <v>0.1186365471442128</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003369544979030113</v>
+        <v>0.001005418953723445</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05224322155432825</v>
+        <v>0.01771982223189816</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02908442422422389</v>
+        <v>0.00720439808138838</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01603324185360867</v>
+        <v>0.02648383234772226</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06392972285452941</v>
+        <v>0.08489002649348609</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05648946753175037</v>
+        <v>0.1184393954705046</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03414851582130821</v>
+        <v>0.07912423283608168</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.05088592935852719</v>
+        <v>0.05141921877512374</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.07530753617954761</v>
+        <v>0.001428538542609652</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02801189753257385</v>
+        <v>0.0518075879401486</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1365673218480378</v>
+        <v>0.1193543737835493</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3492252763573349</v>
+        <v>0.3753237381595173</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03007045204888728</v>
+        <v>0.02834687480284374</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04591530226462412</v>
+        <v>0.009309773217441671</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06997008895113772</v>
+        <v>0.08963570946089811</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006188806297803848</v>
+        <v>0.03088847725015675</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07265996523322898</v>
+        <v>0.08694614986477794</v>
       </c>
       <c r="K17" t="n">
-        <v>0.005036673077321675</v>
+        <v>0.002094558166781597</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04591173081090176</v>
+        <v>0.08970804199365573</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004057835159684675</v>
+        <v>0.004661414047381269</v>
       </c>
       <c r="N17" t="n">
-        <v>0.005072615699164688</v>
+        <v>0.08007165191930228</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01551720412619469</v>
+        <v>0.05361351086374321</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0403387208019525</v>
+        <v>0.01252046612506296</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0424654756309471</v>
+        <v>0.00470358320557661</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07896835291291818</v>
+        <v>0.08349696836131132</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00910341577035805</v>
+        <v>0.006940820244977172</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0705208200586545</v>
+        <v>0.04492984128361768</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0370875390652454</v>
+        <v>0.01868790132324536</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09356551725567763</v>
+        <v>0.08921717157457731</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006868852097581885</v>
+        <v>0.07352693103330614</v>
       </c>
       <c r="X17" t="n">
-        <v>0.00569647657853023</v>
+        <v>0.005779524937831816</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0776179955546404</v>
+        <v>0.03646615723713647</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.09535658634097928</v>
+        <v>0.07795988432046791</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.07439673936182248</v>
+        <v>0.03131926647779975</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06761283490174297</v>
+        <v>0.03917532228810726</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1945767320123231</v>
+        <v>0.1795338430622062</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1980876228154261</v>
+        <v>0.2033793329831858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07156417071100037</v>
+        <v>0.04738413767777177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09184178516701916</v>
+        <v>0.09415936411964536</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05095050917703735</v>
+        <v>0.06930839317737397</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03692693326528242</v>
+        <v>0.05232207695294702</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01407116330829376</v>
+        <v>0.02929739515521112</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007584311099442632</v>
+        <v>0.02091180105725046</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008780419693631584</v>
+        <v>0.02874025814677549</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08747806796959071</v>
+        <v>0.02360243273420463</v>
       </c>
       <c r="N18" t="n">
-        <v>0.008294738001431295</v>
+        <v>0.01197810693508851</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03483743808517088</v>
+        <v>0.03459425116315922</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04540987730059631</v>
+        <v>0.02072673239062664</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05256245464865393</v>
+        <v>0.05649227728033166</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06094367362667036</v>
+        <v>0.08342213112082554</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06117405567241097</v>
+        <v>0.09964575404116592</v>
       </c>
       <c r="T18" t="n">
-        <v>0.00255471528733417</v>
+        <v>0.02219354473826663</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06812155872869599</v>
+        <v>0.04219528660179162</v>
       </c>
       <c r="V18" t="n">
-        <v>0.003620593059009553</v>
+        <v>0.01042360813186084</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08819363453364164</v>
+        <v>0.01643422418286657</v>
       </c>
       <c r="X18" t="n">
-        <v>0.006272384144659613</v>
+        <v>0.007537603163283976</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0267317025647398</v>
+        <v>0.09314015491467111</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08956850644564943</v>
+        <v>0.06517559263796516</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.007703680798914689</v>
+        <v>0.04906437668734178</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07481362671112336</v>
+        <v>0.02125049698957486</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0750083296938624</v>
+        <v>0.04239690756981041</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2830119119358356</v>
+        <v>0.2426932932988288</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08375742364631186</v>
+        <v>0.02937056608193341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01042910737550707</v>
+        <v>0.02354842047523341</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007716781168334336</v>
+        <v>0.01286837833144789</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08520399968644578</v>
+        <v>0.02737771420031922</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1131899519229989</v>
+        <v>0.07387741942305605</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001220123358478667</v>
+        <v>0.07592667054271611</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001235802790755695</v>
+        <v>0.0619087329425406</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09169102868656685</v>
+        <v>0.01719955311229929</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00192583434426148</v>
+        <v>0.002414844587422929</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02933325215485996</v>
+        <v>0.01973742834677022</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0007738835822150996</v>
+        <v>0.0792110469307805</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0109076476049061</v>
+        <v>0.008659137537303742</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01110511924047869</v>
+        <v>0.06741893068997577</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09778479672028202</v>
+        <v>0.08085100651992462</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01335630099927064</v>
+        <v>0.02880148963764679</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1103504272283193</v>
+        <v>0.08052041687202485</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1078144957901036</v>
+        <v>0.05707183396884467</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06080821224753141</v>
+        <v>0.06765478260826409</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01351176460227163</v>
+        <v>0.002093344024202512</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.002016010247350814</v>
+        <v>0.0116757855305068</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.04805849099573624</v>
+        <v>0.06133839881673777</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.09166092266615072</v>
+        <v>0.07445804876318092</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.006148622940863073</v>
+        <v>0.03601605005686764</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07019799768561678</v>
+        <v>0.08773393159087975</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.154017700793998</v>
+        <v>0.1512832393607395</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0006696926412766514</v>
+        <v>0.05450834196998228</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08382917971205177</v>
+        <v>0.0317927994298604</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02270374519682628</v>
+        <v>0.007206758204314684</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08696188894885874</v>
+        <v>0.07075661983675052</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04478052727313116</v>
+        <v>0.01586522758153647</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0226378359375662</v>
+        <v>0.01455668963504945</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009896526243645327</v>
+        <v>0.01551770065928911</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1004365133651795</v>
+        <v>0.06722559568575473</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002592258447349782</v>
+        <v>0.0225869056869512</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05256670191666504</v>
+        <v>0.02013279213295435</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0299523662875737</v>
+        <v>0.04378636261234227</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02063510199228868</v>
+        <v>0.03075061894245043</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01638032762451903</v>
+        <v>0.07590134540899218</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1084348296603505</v>
+        <v>0.07763261596112114</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01751565766361344</v>
+        <v>0.006275520967325181</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09921394633583801</v>
+        <v>0.06889882379920684</v>
       </c>
       <c r="V20" t="n">
-        <v>0.000942050306564894</v>
+        <v>0.004017105565831684</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04214026443978849</v>
+        <v>0.07844190430419665</v>
       </c>
       <c r="X20" t="n">
-        <v>0.04125971150089029</v>
+        <v>0.01985112905281358</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09361343542026755</v>
+        <v>0.09036246790157908</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.07566101157924331</v>
+        <v>0.05751641719411205</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01037180374074049</v>
+        <v>0.07555916772949053</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01680462376577116</v>
+        <v>0.05085708973809519</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.158768800616359</v>
+        <v>-0.1487736286292619</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1779447351563196</v>
+        <v>0.2083482718899206</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1019429236646286</v>
+        <v>0.08781935127064878</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05022458209263411</v>
+        <v>0.03457560555084683</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01551404210681721</v>
+        <v>0.02550793787594527</v>
       </c>
       <c r="I21" t="n">
-        <v>9.229670052197184e-05</v>
+        <v>0.03289976142302457</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07927198902218692</v>
+        <v>0.05277186466551555</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02507253824719471</v>
+        <v>0.08820169761132376</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04423017370349627</v>
+        <v>0.03187601279078452</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02579941122061081</v>
+        <v>0.04145953123136922</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01122792635242363</v>
+        <v>0.03143252300930936</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03283614368692957</v>
+        <v>0.01259567768633285</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0885866322293582</v>
+        <v>0.02325708441243085</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03216754769712501</v>
+        <v>0.004084950822845173</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04024711100624091</v>
+        <v>0.07735768025324775</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1016667919516019</v>
+        <v>0.06403962932832945</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006542502651084046</v>
+        <v>0.0150781727203101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003363380248227142</v>
+        <v>0.03830552967180272</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07181665082608651</v>
+        <v>0.08371039027737937</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08215847788504338</v>
+        <v>0.07106559362497845</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02866176288070423</v>
+        <v>0.009165229410327071</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05666800246537308</v>
+        <v>0.0001793282111182741</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.008891671755427648</v>
+        <v>0.03733513129649135</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01548512148572322</v>
+        <v>0.06035399615116274</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0775323201205608</v>
+        <v>0.07692732070447598</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.177002767103951</v>
+        <v>-0.1800433447937272</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1850947894606619</v>
+        <v>0.1869739082148197</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06185332898822745</v>
+        <v>0.1169140395827741</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02611095160696491</v>
+        <v>0.04150449577124882</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02410781680555586</v>
+        <v>0.06281388268221379</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09002450654935851</v>
+        <v>0.06073233663207541</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01681977738161376</v>
+        <v>0.02364764986975936</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06626368248326114</v>
+        <v>0.001024949495569841</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01150439815973889</v>
+        <v>0.001502319146312971</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04158792579783172</v>
+        <v>0.06414333183847633</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01930181134730016</v>
+        <v>0.007150612396072294</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1045477839584299</v>
+        <v>0.02369317320035007</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07570902237588616</v>
+        <v>0.06543010631855026</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00851044482338523</v>
+        <v>0.0001670015486170206</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09067668351509513</v>
+        <v>0.06707172086200405</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1082234787244286</v>
+        <v>0.09998264743345812</v>
       </c>
       <c r="T22" t="n">
-        <v>8.93196457756008e-05</v>
+        <v>0.01360759653990465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06652296428288502</v>
+        <v>0.07039961775251057</v>
       </c>
       <c r="V22" t="n">
-        <v>0.000892478008677649</v>
+        <v>0.05952123633840414</v>
       </c>
       <c r="W22" t="n">
-        <v>0.04826009420895574</v>
+        <v>0.09956250773104053</v>
       </c>
       <c r="X22" t="n">
-        <v>0.009393300894945975</v>
+        <v>0.01062938696776056</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04354647382956729</v>
+        <v>0.02208310588062645</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01462399328637155</v>
+        <v>0.01211821098831898</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07114161114168806</v>
+        <v>0.03984669321841005</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0002881521840557552</v>
+        <v>0.03645337780554158</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06629194226043297</v>
+        <v>0.03735406771233536</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2149403823303239</v>
+        <v>0.2041983108432381</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08529626351994395</v>
+        <v>0.07356083919985532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07345330417680744</v>
+        <v>0.01847097990514327</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01403002180312276</v>
+        <v>0.03632820648402123</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01506051924896786</v>
+        <v>0.08545414708510773</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06185850125825139</v>
+        <v>0.05465045478459951</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07942207273528516</v>
+        <v>0.0586154245265407</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06384212385810686</v>
+        <v>0.03931783531138371</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01587207824322202</v>
+        <v>0.04898344726403527</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007810435509603106</v>
+        <v>0.01600645979186778</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03942905875179353</v>
+        <v>0.08408091591691898</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0351005294367175</v>
+        <v>0.03685964711870196</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0004451456185505043</v>
+        <v>0.002422477345420806</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08455933478478818</v>
+        <v>0.06183881599568717</v>
       </c>
       <c r="S23" t="n">
-        <v>0.007714937707081095</v>
+        <v>0.03799423377809592</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06727210401098732</v>
+        <v>0.03434220219124891</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05668967912056833</v>
+        <v>0.009653466779904989</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05742998193803023</v>
+        <v>0.0809005864579329</v>
       </c>
       <c r="W23" t="n">
-        <v>0.06178288580414024</v>
+        <v>0.07101532384197058</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03276890812582078</v>
+        <v>0.07594004963093401</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03632144848482856</v>
+        <v>0.005865088209116407</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0636442049537677</v>
+        <v>0.05862879185395886</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03868389615429579</v>
+        <v>0.00602108233843883</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.001512564755319851</v>
+        <v>0.003049524189115203</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06276905179031554</v>
+        <v>0.0618586224879247</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1935297225154697</v>
+        <v>0.1841426069883082</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08170990553553201</v>
+        <v>0.09512562426593973</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06947099151361533</v>
+        <v>0.044136128019738</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01092681316564775</v>
+        <v>0.01732981768131151</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01683248870452343</v>
+        <v>0.04271998087293764</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00882841810107206</v>
+        <v>0.00601508318049791</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01311828475067924</v>
+        <v>0.002746666969936955</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007461703972620018</v>
+        <v>0.01795254582630415</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09520714884237767</v>
+        <v>0.01729132285679224</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06778098792342171</v>
+        <v>0.0005117570332682334</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04645498548828449</v>
+        <v>0.0309040642970577</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07920153327270671</v>
+        <v>0.1157251679340645</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03529644024835719</v>
+        <v>0.0403085302002443</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08527145129804052</v>
+        <v>0.08045890718535283</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06766055789917258</v>
+        <v>0.09589577391346593</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01486383010433707</v>
+        <v>0.02631534352454582</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02736020252387863</v>
+        <v>0.01597274630714451</v>
       </c>
       <c r="V24" t="n">
-        <v>0.006481954991864305</v>
+        <v>0.00337788609195862</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02253570782902646</v>
+        <v>0.05016938456402122</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05637994591884355</v>
+        <v>0.115682686497221</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.001125539906823992</v>
+        <v>0.05344814852012613</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07416858014015569</v>
+        <v>0.02166970289816639</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.09118939706722494</v>
+        <v>0.09963782779712571</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02067313080179477</v>
+        <v>0.006604903562778927</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1243356485968179</v>
+        <v>0.1080587264919119</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2158607822609203</v>
+        <v>0.2105166752970824</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08597626102122197</v>
+        <v>0.09062994965211997</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1021024675776394</v>
+        <v>0.04168245809569419</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06776500488463783</v>
+        <v>0.03818686374144151</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003872503451403582</v>
+        <v>0.04765920114933324</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01377600356755111</v>
+        <v>0.07262342427305619</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04498103908948647</v>
+        <v>0.08074447465838623</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00961325868885228</v>
+        <v>0.04419451377097844</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01391899659635403</v>
+        <v>0.005163291667907459</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007200929256391447</v>
+        <v>0.0006033705380382156</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04535955690507705</v>
+        <v>0.09780398047186466</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05024696413863132</v>
+        <v>0.01125488969298082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01593244718697547</v>
+        <v>0.04033897906765667</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07211122631590305</v>
+        <v>0.0843756586354914</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06313122134095407</v>
+        <v>0.05540115816357719</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03357470118084468</v>
+        <v>0.006860614474512815</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08602541464650242</v>
+        <v>0.04746581142498627</v>
       </c>
       <c r="V25" t="n">
-        <v>0.002527987379042882</v>
+        <v>0.02501491851149913</v>
       </c>
       <c r="W25" t="n">
-        <v>0.08881309440673894</v>
+        <v>0.07330804362168587</v>
       </c>
       <c r="X25" t="n">
-        <v>0.003753595261480239</v>
+        <v>0.007443190374148347</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02809666352430199</v>
+        <v>0.02310612736015139</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.103155976721324</v>
+        <v>0.06451514247540573</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.003959586765800821</v>
+        <v>0.0008805185977938446</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05410510009288516</v>
+        <v>0.04074341958129048</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1621603585139961</v>
+        <v>0.1541904037717162</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1935296732469936</v>
+        <v>0.1962123735231945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01921717517708332</v>
+        <v>0.07524068260478237</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0236405151390156</v>
+        <v>0.03155924951718665</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03110974440932993</v>
+        <v>0.04693404987768276</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004501222215105987</v>
+        <v>0.0175562488799213</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01811798662591837</v>
+        <v>0.05481401649174133</v>
       </c>
       <c r="K26" t="n">
-        <v>0.005828210938813771</v>
+        <v>0.008616323424338788</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03530935814514224</v>
+        <v>0.00884535806326805</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1000556790166381</v>
+        <v>0.07162354795437048</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01078592736028129</v>
+        <v>0.03980243331304252</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06705937007655165</v>
+        <v>0.08217507676036137</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09950157164129184</v>
+        <v>0.09965162492169831</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01005287006731876</v>
+        <v>0.008125662384969522</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08021747534619854</v>
+        <v>0.09784617944879312</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08436500175005841</v>
+        <v>0.06492510891487378</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006413590463402546</v>
+        <v>0.002858117548263654</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03777686217353796</v>
+        <v>0.07489629664487228</v>
       </c>
       <c r="V26" t="n">
-        <v>0.08082435677604376</v>
+        <v>0.08190916626709514</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08894844974854425</v>
+        <v>0.02501117325113326</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06463577218347225</v>
+        <v>0.003673082633092988</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01140266827490621</v>
+        <v>0.02101378586353246</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02367388121805375</v>
+        <v>0.01137552802448152</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04439408231749584</v>
+        <v>0.05413702490416376</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05216822893579567</v>
+        <v>0.01741026230633424</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.04009043400257626</v>
+        <v>0.04008186082195228</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2078728953061321</v>
+        <v>0.2196366942621696</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113740389764232</v>
+        <v>0.06517587097517727</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004800784723371827</v>
+        <v>0.09112699832549327</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09009473925689977</v>
+        <v>0.07237428618932475</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03612137963061601</v>
+        <v>0.02115845643675817</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05302140588892663</v>
+        <v>0.0003629952188054137</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04850655522002969</v>
+        <v>0.06579352262340835</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01519965776347765</v>
+        <v>0.02226257950064681</v>
       </c>
       <c r="M27" t="n">
-        <v>0.007609758013051087</v>
+        <v>0.01131010419947295</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01540888196238716</v>
+        <v>0.03152283758690624</v>
       </c>
       <c r="O27" t="n">
-        <v>0.09393415982599609</v>
+        <v>0.09890402958942947</v>
       </c>
       <c r="P27" t="n">
-        <v>0.008889821112233569</v>
+        <v>0.01253087369531229</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02917025925334034</v>
+        <v>0.05228865403283773</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0389981529291988</v>
+        <v>0.02662820034996023</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08395127234698097</v>
+        <v>0.03860747534436341</v>
       </c>
       <c r="T27" t="n">
-        <v>0.003077307024586267</v>
+        <v>0.01585315654228875</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03698136212168676</v>
+        <v>0.09628318397478326</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01011525054742719</v>
+        <v>0.03540417756136755</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05338061715879806</v>
+        <v>0.07284398363990521</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09656895272700831</v>
+        <v>0.09377549175968593</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05465454841880728</v>
+        <v>0.04800531004466908</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03827685341432228</v>
+        <v>0.0002905917684187968</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05473067183736744</v>
+        <v>0.01220373198151259</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01513356984706369</v>
+        <v>0.01529348865947245</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03294457651785661</v>
+        <v>0.04769684511658644</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2010511987066763</v>
+        <v>0.1996693900653416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0821799826064056</v>
+        <v>0.05167527077306749</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02604206676328138</v>
+        <v>0.01417303479101372</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01452218716827289</v>
+        <v>0.01822363012152111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0582641041507757</v>
+        <v>0.06370253313994197</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006090101343598531</v>
+        <v>0.03277291586865141</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02556392394050507</v>
+        <v>0.004163774575805998</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02760910292113414</v>
+        <v>0.00596655312974315</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1154396726758625</v>
+        <v>0.06711186785812055</v>
       </c>
       <c r="N28" t="n">
-        <v>0.006529801564694159</v>
+        <v>0.005043541491642758</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04871805854471498</v>
+        <v>0.05349699367539336</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03485982553341167</v>
+        <v>0.04895005166290673</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.04141335659220682</v>
+        <v>0.03924822519141848</v>
       </c>
       <c r="R28" t="n">
-        <v>0.110019590695553</v>
+        <v>0.08238163841337477</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04134756997150914</v>
+        <v>0.0612005944112031</v>
       </c>
       <c r="T28" t="n">
-        <v>0.001428572505285933</v>
+        <v>0.02102791562213751</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03450074128206149</v>
+        <v>0.06489987016202937</v>
       </c>
       <c r="V28" t="n">
-        <v>0.006340045307763225</v>
+        <v>0.03838400475931219</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0727780942832921</v>
+        <v>0.05085709914684402</v>
       </c>
       <c r="X28" t="n">
-        <v>0.08668595107834186</v>
+        <v>0.01833275771304364</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02198337622741222</v>
+        <v>0.02887695202851881</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02950948389376157</v>
+        <v>0.07982595662925035</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.1011394191194867</v>
+        <v>0.07962750142760298</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.007034971830669363</v>
+        <v>0.07005731740745645</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1534260913720878</v>
+        <v>0.1639230147903397</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2495932629439971</v>
+        <v>0.2382684489361139</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04207989194241349</v>
+        <v>0.09548930686655603</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08083761078333324</v>
+        <v>0.03543341999935481</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001852688011569863</v>
+        <v>0.007016670422080133</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1022471016926766</v>
+        <v>0.09962098511167536</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07504103910917696</v>
+        <v>0.039075805894159</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1057022063178162</v>
+        <v>0.07297942744801474</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01086882094796036</v>
+        <v>0.02328700212111047</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03080053528375032</v>
+        <v>0.008484467530558834</v>
       </c>
       <c r="N29" t="n">
-        <v>0.06615761578184502</v>
+        <v>0.003173748128324243</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09799366375198075</v>
+        <v>0.08589195220367243</v>
       </c>
       <c r="P29" t="n">
-        <v>0.003403037840387548</v>
+        <v>0.02118502304980453</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008375742538451346</v>
+        <v>0.03680417371359476</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01244405117049343</v>
+        <v>0.01283791397613507</v>
       </c>
       <c r="S29" t="n">
-        <v>0.009835013364872787</v>
+        <v>0.005539815211018064</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04475557763110005</v>
+        <v>0.05576953949998639</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1040280305872209</v>
+        <v>0.06560013093686637</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04372895443548621</v>
+        <v>0.03359602400427121</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02629092093440561</v>
+        <v>0.04928210886490555</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06799527744372368</v>
+        <v>0.03619379985900779</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02205009804463192</v>
+        <v>0.01964254625772991</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.00404680619316021</v>
+        <v>0.07253506406031909</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.030619429301185</v>
+        <v>0.03349618882545935</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.008845886892358516</v>
+        <v>0.08706488601539569</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1993437187600633</v>
+        <v>0.1949935796757985</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1559689967491746</v>
+        <v>0.1615033439048324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01706856007612685</v>
+        <v>0.005389656004818417</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02983444224358529</v>
+        <v>0.06230573056290864</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02912677609023363</v>
+        <v>0.006512536048055069</v>
       </c>
       <c r="I30" t="n">
-        <v>9.46562830903094e-05</v>
+        <v>0.01250288885334293</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01447882886717261</v>
+        <v>0.02777297790248838</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01589610473984136</v>
+        <v>0.01550972437984277</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03566474600890446</v>
+        <v>0.08826867662579406</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0422460948150816</v>
+        <v>0.08142712811207238</v>
       </c>
       <c r="N30" t="n">
-        <v>0.07439856802527803</v>
+        <v>0.03667153619106288</v>
       </c>
       <c r="O30" t="n">
-        <v>0.09917609889233242</v>
+        <v>0.01758421419147881</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03295080279245177</v>
+        <v>0.08295632077350459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0854554157891738</v>
+        <v>0.06726968228362915</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06297625353926878</v>
+        <v>0.06588394574045806</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1009624180051756</v>
+        <v>0.08062115863078888</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04833086511911196</v>
+        <v>0.03163590946892299</v>
       </c>
       <c r="U30" t="n">
-        <v>0.008738056100460844</v>
+        <v>0.007845696087947707</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01590442723539132</v>
+        <v>0.003309902132129117</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06664346341584733</v>
+        <v>0.07372369719254682</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06349430099981998</v>
+        <v>0.07547621199455272</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.02716887181278854</v>
+        <v>0.07038751152568687</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.08153637731471668</v>
+        <v>0.059589726965699</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.009947175355693477</v>
+        <v>0.006302500703839873</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.03790669647845325</v>
+        <v>0.02105266762842993</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.00774778777026318</v>
+        <v>0.02789225223439786</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.188876601622218</v>
+        <v>0.1950499081364919</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008215189089191225</v>
+        <v>0.02849543261619488</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09638716510350991</v>
+        <v>0.09015009230852727</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008388197216186978</v>
+        <v>0.01997680616581636</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004054866598761499</v>
+        <v>0.02047268630366208</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04921491780581899</v>
+        <v>0.01036971162064244</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09908067253030259</v>
+        <v>0.09093285384441722</v>
       </c>
       <c r="L31" t="n">
-        <v>0.09852940906212139</v>
+        <v>0.08950237519763427</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07473066573482076</v>
+        <v>0.004492788582709939</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04007741644965811</v>
+        <v>0.01738964656955988</v>
       </c>
       <c r="O31" t="n">
-        <v>0.08314389472262589</v>
+        <v>0.05776037658770209</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0508067700332497</v>
+        <v>0.06520760449536314</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06923202031693387</v>
+        <v>0.01444286343886974</v>
       </c>
       <c r="R31" t="n">
-        <v>0.04773670469766984</v>
+        <v>0.01868440007832</v>
       </c>
       <c r="S31" t="n">
-        <v>0.001723289060044032</v>
+        <v>0.009740795206636919</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01542904412069647</v>
+        <v>0.08189356420492175</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03143595049204126</v>
+        <v>0.03954806348460498</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0876162855579628</v>
+        <v>0.08856668488892598</v>
       </c>
       <c r="W31" t="n">
-        <v>0.006815639930132297</v>
+        <v>0.08509993857922619</v>
       </c>
       <c r="X31" t="n">
-        <v>0.03387864164230037</v>
+        <v>0.04247819483812287</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.008285821619620935</v>
+        <v>0.02525439603121631</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0452835823642945</v>
+        <v>0.0563888468647001</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.002244099531356225</v>
+        <v>0.03593880313438573</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.03768975632070034</v>
+        <v>0.007213074957839606</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03747525643638543</v>
+        <v>0.04379583579400411</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1355058706190889</v>
+        <v>0.1322466023039093</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01818603290909846</v>
+        <v>0.05130446278387985</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05115220938715325</v>
+        <v>0.07660820867920545</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04762053217440008</v>
+        <v>0.03204674020907211</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03958200898751959</v>
+        <v>0.0531303300744619</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03874181146932523</v>
+        <v>0.003144516586177362</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01424808499198395</v>
+        <v>0.01244985875464955</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03508379098715131</v>
+        <v>0.01770117512758749</v>
       </c>
       <c r="M32" t="n">
-        <v>0.004022582355986113</v>
+        <v>0.02337074449027567</v>
       </c>
       <c r="N32" t="n">
-        <v>0.06052336565088695</v>
+        <v>0.0422342407888495</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01741252517409388</v>
+        <v>0.07319077308910404</v>
       </c>
       <c r="P32" t="n">
-        <v>0.08134122183721401</v>
+        <v>0.0591208520187949</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.07588030609977227</v>
+        <v>0.0479543393475286</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0792485053236896</v>
+        <v>0.08428040499597592</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08072314010487423</v>
+        <v>0.08314068491960798</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0228499757612276</v>
+        <v>0.007533279836944128</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0434230492984988</v>
+        <v>0.05123816047363063</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02139490369810966</v>
+        <v>0.002837033453629445</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02884520275610485</v>
+        <v>0.08561247890351081</v>
       </c>
       <c r="X32" t="n">
-        <v>0.06836445297209469</v>
+        <v>0.01579079968253521</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0604781150581982</v>
+        <v>0.04452218451715754</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08019877860432741</v>
+        <v>0.05797997195881206</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01389430348629082</v>
+        <v>0.04104917988581559</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01678510091199882</v>
+        <v>0.03375957942279436</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0165459380829598</v>
+        <v>0.03625063120518941</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1583169651120835</v>
+        <v>0.1679303086318945</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05453475425026969</v>
+        <v>0.02814796159183565</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07431294503350955</v>
+        <v>0.007940320483760222</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0004589639313481089</v>
+        <v>0.01670704525985557</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03621077857088269</v>
+        <v>0.0742244810530111</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02212073754001398</v>
+        <v>0.00444279142463541</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1008419983469143</v>
+        <v>0.0960768413031137</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08408740318123691</v>
+        <v>0.07591807526697371</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06093813310891706</v>
+        <v>0.075842679464128</v>
       </c>
       <c r="N33" t="n">
-        <v>0.004514856649402941</v>
+        <v>0.000888957200848895</v>
       </c>
       <c r="O33" t="n">
-        <v>0.05233710530571642</v>
+        <v>0.07585439845101746</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0889873047632601</v>
+        <v>0.07974917087829385</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05721463094811669</v>
+        <v>0.02283622333478623</v>
       </c>
       <c r="R33" t="n">
-        <v>0.003244823866841671</v>
+        <v>0.0001638484544241812</v>
       </c>
       <c r="S33" t="n">
-        <v>0.05585532780098282</v>
+        <v>0.03544612023542316</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003517655882403348</v>
+        <v>0.09287445868021256</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06667312690458532</v>
+        <v>0.07320326894976747</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0173920258241585</v>
+        <v>0.0395763870361257</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08818091343823901</v>
+        <v>0.09678531177179778</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0195193391003311</v>
+        <v>0.04002915180082935</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01785528227649583</v>
+        <v>0.01338597747246517</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.00153895017062197</v>
+        <v>0.01078520288601413</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.08477303825388034</v>
+        <v>0.003331840412460154</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.004889904851871602</v>
+        <v>0.03578948658822063</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0253395201440186</v>
+        <v>0.0204554949812015</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1325772469998488</v>
+        <v>0.1322613397500965</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08001109275470623</v>
+        <v>0.06732356910624261</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01450448985638473</v>
+        <v>0.06275642026107349</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03281374506437914</v>
+        <v>0.02409665975288604</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001188625922183368</v>
+        <v>0.04723364196372917</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03903176370399638</v>
+        <v>0.009943627024976249</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02937549816111904</v>
+        <v>0.009801074628596211</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01686622418380418</v>
+        <v>0.01549914178710364</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00954341643801597</v>
+        <v>0.04801464156041869</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01046875786663695</v>
+        <v>0.007260976134542814</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008854670391753553</v>
+        <v>0.005358840075758402</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08192208532369767</v>
+        <v>0.05629068753422628</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02480223985050024</v>
+        <v>0.08091189716374945</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06807605371857896</v>
+        <v>0.07746473640277618</v>
       </c>
       <c r="S34" t="n">
-        <v>0.07821531409021718</v>
+        <v>0.04938414547475706</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04200824092017207</v>
+        <v>0.005932777434741639</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1017540113050558</v>
+        <v>0.0742945444888696</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01602048823491061</v>
+        <v>0.006730980575740742</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01110234982848631</v>
+        <v>0.02782823728535563</v>
       </c>
       <c r="X34" t="n">
-        <v>0.09392776342990355</v>
+        <v>0.04532366999774629</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05022416767850674</v>
+        <v>0.08165973444805852</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.09348413072455797</v>
+        <v>0.09463406158583089</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02869238199575547</v>
+        <v>0.09107377532111674</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.06711248855667794</v>
+        <v>0.01118215999170374</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1239254419180455</v>
+        <v>0.07814092310363718</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1501662047959268</v>
+        <v>0.1543183220176689</v>
       </c>
       <c r="F35" t="n">
-        <v>0.007362806806332668</v>
+        <v>0.01371379119388899</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05294988841240205</v>
+        <v>0.08695182458171917</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08742327735840495</v>
+        <v>0.02906733808146314</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09017011076892156</v>
+        <v>0.1208972303524584</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02511427348719648</v>
+        <v>0.0220312260438023</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01028701264468797</v>
+        <v>0.009700295294487307</v>
       </c>
       <c r="L35" t="n">
-        <v>0.08247206867435918</v>
+        <v>0.09957558186301947</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009447359801131237</v>
+        <v>0.01841708645842517</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02308497239319126</v>
+        <v>0.04485722382741424</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08938562348752503</v>
+        <v>0.08703346229352202</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06935943176148762</v>
+        <v>0.0401197455768859</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01982450065746759</v>
+        <v>0.003244106491314317</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04407347914521254</v>
+        <v>0.04317480024435097</v>
       </c>
       <c r="S35" t="n">
-        <v>0.07535928724264003</v>
+        <v>0.1107469622407298</v>
       </c>
       <c r="T35" t="n">
-        <v>0.07249424690280208</v>
+        <v>0.02042619707865613</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06602315011579331</v>
+        <v>0.02914796072744005</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01061034239743793</v>
+        <v>0.04880756827800071</v>
       </c>
       <c r="W35" t="n">
-        <v>0.08466984097628447</v>
+        <v>0.06835887621275517</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02003602525112182</v>
+        <v>0.006106470177626323</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0003440959166450424</v>
+        <v>0.02269169238917554</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01625077002357313</v>
+        <v>0.03500254582689723</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.018944579093199</v>
+        <v>0.007321181207328141</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02431285668218293</v>
+        <v>0.03260683355863944</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1434029275865386</v>
+        <v>0.1451589308708243</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1562505508683182</v>
+        <v>0.154669305846989</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04361297586828379</v>
+        <v>0.08054333543946027</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04770565803633572</v>
+        <v>0.02713660250819352</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05880053909842753</v>
+        <v>0.001627116372916458</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0002341064661579407</v>
+        <v>0.05542664607486604</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09714931233870745</v>
+        <v>0.05643019933416898</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01354181272539188</v>
+        <v>0.003345022604453265</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01870925715230525</v>
+        <v>0.05602712016035159</v>
       </c>
       <c r="M36" t="n">
-        <v>0.02312299860446173</v>
+        <v>0.05416050396755771</v>
       </c>
       <c r="N36" t="n">
-        <v>0.09844248035474611</v>
+        <v>0.06397285698675093</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02339267429298809</v>
+        <v>0.02320143555004979</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02248661191166901</v>
+        <v>0.0947584296898934</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02443153497107858</v>
+        <v>0.02735851388822914</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0472560140034175</v>
+        <v>0.02661577901657835</v>
       </c>
       <c r="S36" t="n">
-        <v>0.001880694394848161</v>
+        <v>0.003239498825842204</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04881549099261849</v>
+        <v>0.02802476340210598</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003998548358757547</v>
+        <v>0.04645353914174481</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02957918557028783</v>
+        <v>0.01652724423034203</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06414840848350552</v>
+        <v>0.006733662950752963</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08210441377246223</v>
+        <v>0.0689483884206506</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01301366841456095</v>
+        <v>0.01099969935965014</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04714372989941557</v>
+        <v>0.1067287238955806</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.09204142782642159</v>
+        <v>0.09720688546334731</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0983884564631516</v>
+        <v>0.044534032716514</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.05262859477422647</v>
+        <v>-0.0004743575117232557</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2807748577827558</v>
+        <v>0.2572118715930334</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04260215628344923</v>
+        <v>0.01060986873914372</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05079315840741772</v>
+        <v>0.03963369452159884</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02462291888233528</v>
+        <v>0.0007174121326344244</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05010059239461589</v>
+        <v>0.0004049202419052167</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05061126497239797</v>
+        <v>0.04125850360681346</v>
       </c>
       <c r="K37" t="n">
-        <v>0.004979097318421531</v>
+        <v>0.03898261102607228</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05269567018119883</v>
+        <v>0.06445492926301882</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06434424282473473</v>
+        <v>0.02814525083893156</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001770659884523588</v>
+        <v>0.04027349217422381</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07341735181501569</v>
+        <v>0.01141163016738359</v>
       </c>
       <c r="P37" t="n">
-        <v>0.07657519956338749</v>
+        <v>0.02618064739271828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01794649363177628</v>
+        <v>0.001299313337631193</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06375840675892934</v>
+        <v>0.07955530604954882</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07332644735014106</v>
+        <v>0.05911470564180489</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03753298692461943</v>
+        <v>0.0841508692905764</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07350713813030554</v>
+        <v>0.07697843400710926</v>
       </c>
       <c r="V37" t="n">
-        <v>0.08277597312604697</v>
+        <v>0.1077941740766902</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04039894085237244</v>
+        <v>0.0842419066321944</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01990044440951235</v>
+        <v>0.05910369201310306</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01897542154961947</v>
+        <v>0.001390927518466015</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.07485402994743835</v>
+        <v>0.1039663446508324</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.002893202623002546</v>
+        <v>0.03884743252502085</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.001618202168737998</v>
+        <v>0.001483934152578428</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0346594298580697</v>
+        <v>0.04670055068784153</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1806949883567312</v>
+        <v>0.1798316849213186</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009361749466833871</v>
+        <v>0.01872644646448953</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0514243020651026</v>
+        <v>0.02353250930387026</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0333358007831945</v>
+        <v>0.07033287618517146</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0285483485617416</v>
+        <v>0.007699300824608407</v>
       </c>
       <c r="J38" t="n">
-        <v>0.009304366211124796</v>
+        <v>0.001038233089094993</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03207219883543457</v>
+        <v>0.004675166353794081</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0001658129343629269</v>
+        <v>0.02389453499153308</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07389544166258159</v>
+        <v>0.01770401462270154</v>
       </c>
       <c r="N38" t="n">
-        <v>0.07286306803785635</v>
+        <v>0.05593127967343209</v>
       </c>
       <c r="O38" t="n">
-        <v>0.07521395000370315</v>
+        <v>0.0613544883547917</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01179580811855449</v>
+        <v>0.05211611966169272</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06850995666811797</v>
+        <v>0.03362953152698929</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07275187962454319</v>
+        <v>0.09176433766872991</v>
       </c>
       <c r="S38" t="n">
-        <v>0.07504782084895696</v>
+        <v>0.0194931242744878</v>
       </c>
       <c r="T38" t="n">
-        <v>0.009035301470541067</v>
+        <v>0.03432679872426089</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07827269492174126</v>
+        <v>0.09637234759115149</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02648869209779765</v>
+        <v>0.003766914185362023</v>
       </c>
       <c r="W38" t="n">
-        <v>0.04537998317010838</v>
+        <v>0.008859283685312363</v>
       </c>
       <c r="X38" t="n">
-        <v>0.05288782198137197</v>
+        <v>0.1176666362370214</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05568455444206085</v>
+        <v>0.1249208997291731</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.05361505104337239</v>
+        <v>0.08227514061760277</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0513801286574603</v>
+        <v>0.04066941845515362</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01296526839343751</v>
+        <v>0.009250597779575738</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.033797825060624</v>
+        <v>-0.00740678114589158</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2132769770281945</v>
+        <v>0.2178707800823177</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0828594368631132</v>
+        <v>0.08828111809666191</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07409820164147243</v>
+        <v>0.01948798551516709</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06764148718850051</v>
+        <v>0.1080187552084672</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01048389930863492</v>
+        <v>0.03914685836554115</v>
       </c>
       <c r="J39" t="n">
-        <v>0.002813253146249783</v>
+        <v>0.01704834181458456</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07725418599821392</v>
+        <v>0.03317555323634921</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02503655923394325</v>
+        <v>0.0005713953156899552</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04285250701762035</v>
+        <v>0.01648687885301456</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02103111383176372</v>
+        <v>0.005173738496657965</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0512419013607858</v>
+        <v>0.007073285440730615</v>
       </c>
       <c r="P39" t="n">
-        <v>0.02234899406121967</v>
+        <v>0.01675160670298229</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01615726750858505</v>
+        <v>0.01871476200624439</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07937694022990335</v>
+        <v>0.09069632941370337</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07368890178043441</v>
+        <v>0.07053942056583518</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002331091416962602</v>
+        <v>0.0562200287437646</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02742607933272743</v>
+        <v>0.1138262680191324</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09640026264360303</v>
+        <v>0.08835396572112007</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07878152484287679</v>
+        <v>0.01213250843091563</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02031942503809399</v>
+        <v>0.00506407735293427</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0647164955021327</v>
+        <v>0.02616149047473062</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.03000941803129234</v>
+        <v>0.1072477452706731</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02085659006518071</v>
+        <v>0.0390069760145108</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01227446395669003</v>
+        <v>0.02082091094058899</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.007333612484255365</v>
+        <v>0.02863559196215204</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1971152928448047</v>
+        <v>0.1969614891714435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0159671524669865</v>
+        <v>0.003189887657790289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07182176098718006</v>
+        <v>0.1036833977153651</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03354408057939047</v>
+        <v>0.0150848050143079</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01463360440059646</v>
+        <v>0.003781797467664653</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02019693600561201</v>
+        <v>0.0003171621232075349</v>
       </c>
       <c r="K40" t="n">
-        <v>0.06692357458688725</v>
+        <v>0.03439730529452874</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02571706264618101</v>
+        <v>0.00883639685433266</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01297468716743336</v>
+        <v>0.07456633394228483</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01317456378546279</v>
+        <v>0.04536173692661066</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03064401458479098</v>
+        <v>0.07038354940258822</v>
       </c>
       <c r="P40" t="n">
-        <v>0.05805444172504103</v>
+        <v>0.00847138337289936</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.06138322186592848</v>
+        <v>0.02693688210009007</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08716359580842188</v>
+        <v>0.07044112503123215</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02214422356969344</v>
+        <v>0.09451562654742353</v>
       </c>
       <c r="T40" t="n">
-        <v>0.005382217059477446</v>
+        <v>0.01493803845259115</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08279824932239802</v>
+        <v>0.07935455532002265</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05544525181102676</v>
+        <v>0.00760038712499369</v>
       </c>
       <c r="W40" t="n">
-        <v>0.09037295852975651</v>
+        <v>0.05207598405758493</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0819859530082432</v>
+        <v>0.1047094114962926</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01741714131069677</v>
+        <v>0.01305460464230645</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08502445302443898</v>
+        <v>0.07083919979701839</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.02687948023980706</v>
+        <v>0.04973786720752376</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02035137551454947</v>
+        <v>0.04772256245134082</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1105043634268605</v>
+        <v>0.1307558692232715</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2143277694170611</v>
+        <v>0.224705866052243</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08262754923540913</v>
+        <v>0.09132169069796248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08511908642088223</v>
+        <v>0.006119670820715333</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007629468084122771</v>
+        <v>0.0408573311290216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02648539279375292</v>
+        <v>0.01282541310478141</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02073407005239526</v>
+        <v>0.08130746284358038</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01817118122031697</v>
+        <v>0.05068204651920451</v>
       </c>
       <c r="L41" t="n">
-        <v>0.06467960067271526</v>
+        <v>0.09108651669171834</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07556511739569147</v>
+        <v>0.05563598839666294</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01993558798113213</v>
+        <v>0.0166608446504809</v>
       </c>
       <c r="O41" t="n">
-        <v>0.02213427715790102</v>
+        <v>0.0226367240252638</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03687475654022124</v>
+        <v>0.02368404705887208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03196408370386401</v>
+        <v>0.006651989405818931</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06907493373890791</v>
+        <v>0.03812493908774933</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09438977233629973</v>
+        <v>0.1081040691673256</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04683933837633506</v>
+        <v>0.08687351785030932</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04660103017812268</v>
+        <v>0.03653716056145827</v>
       </c>
       <c r="V41" t="n">
-        <v>0.09456768280020061</v>
+        <v>0.06206466551440541</v>
       </c>
       <c r="W41" t="n">
-        <v>0.005779038987591452</v>
+        <v>0.03543316377112276</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02223288364458664</v>
+        <v>0.02133948490577237</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.003286643149629553</v>
+        <v>0.004774095243561103</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04426783377744285</v>
+        <v>0.05150149201156356</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.06966825770305948</v>
+        <v>0.04558974667077498</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01137241404941984</v>
+        <v>0.01018793987187478</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1471896828730669</v>
+        <v>0.1670133006373962</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2034762581850066</v>
+        <v>0.2031777519292309</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005172949483357565</v>
+        <v>0.0007613136522133638</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06324287795647968</v>
+        <v>0.07609988768024828</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03318252115408429</v>
+        <v>0.01233947365001724</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04323473233582275</v>
+        <v>0.08770974170868238</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01322247381007147</v>
+        <v>0.0214185441734094</v>
       </c>
       <c r="K42" t="n">
-        <v>0.09193851285032376</v>
+        <v>0.03650489801994873</v>
       </c>
       <c r="L42" t="n">
-        <v>0.005160091411318016</v>
+        <v>0.02053924690309814</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09373603054526536</v>
+        <v>0.05140683939805028</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02526110555705567</v>
+        <v>0.0492760082862977</v>
       </c>
       <c r="O42" t="n">
-        <v>0.005428870252319525</v>
+        <v>0.001390023479825055</v>
       </c>
       <c r="P42" t="n">
-        <v>0.07488508787250252</v>
+        <v>0.05803577550565189</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02041416325650792</v>
+        <v>0.00536354127825912</v>
       </c>
       <c r="R42" t="n">
-        <v>0.03136784278630666</v>
+        <v>0.07255794766568967</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06718380977174634</v>
+        <v>0.01635731566979546</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01896485489605717</v>
+        <v>0.09235029572938855</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03393003325912457</v>
+        <v>0.06905774122206799</v>
       </c>
       <c r="V42" t="n">
-        <v>0.001875709098625299</v>
+        <v>0.02262069252218421</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07590631140093836</v>
+        <v>0.07659917738174232</v>
       </c>
       <c r="X42" t="n">
-        <v>0.09594108077030086</v>
+        <v>0.03282160021142359</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.09493499374876151</v>
+        <v>0.07197799751926301</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02642138533605173</v>
+        <v>0.05625300443447983</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.03184656407294836</v>
+        <v>0.0530862463068373</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.04674799837403065</v>
+        <v>0.01547268760142647</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.06480794187983688</v>
+        <v>0.05712942873300549</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.325744058062876</v>
+        <v>0.2930512555285754</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0618164666145327</v>
+        <v>0.04369280121139049</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0266965752407552</v>
+        <v>0.0160916540336042</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05591381255826014</v>
+        <v>0.0837218405227064</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05210539202396908</v>
+        <v>0.0005368990858246539</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02317958965436332</v>
+        <v>0.04210461369765157</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01607926643828721</v>
+        <v>0.0008601809668510279</v>
       </c>
       <c r="L43" t="n">
-        <v>0.006966642170082884</v>
+        <v>0.005592960898678749</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04017228594526012</v>
+        <v>0.008971400669482267</v>
       </c>
       <c r="N43" t="n">
-        <v>0.008295227157453131</v>
+        <v>0.01588481182892855</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02507669136249731</v>
+        <v>0.02205923111906762</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01359153932561747</v>
+        <v>0.004198267150186786</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02843756138326235</v>
+        <v>0.03171254771442081</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05547460181957791</v>
+        <v>0.009058997916622064</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06397936835041733</v>
+        <v>0.08697498098369716</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07016779266871528</v>
+        <v>0.1216455286766818</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05969761210371064</v>
+        <v>0.03116103982562144</v>
       </c>
       <c r="V43" t="n">
-        <v>0.06559954480873062</v>
+        <v>0.04912758669360504</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05601196799097379</v>
+        <v>0.03061707263772431</v>
       </c>
       <c r="X43" t="n">
-        <v>0.01826164780165756</v>
+        <v>0.03549934559714876</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07616843755863327</v>
+        <v>0.09627929911241996</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.05738771204221298</v>
+        <v>0.1211426432218073</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.07922766217562476</v>
+        <v>0.1007223502201975</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.03969260280540482</v>
+        <v>0.04234394621568181</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.06368877353087343</v>
+        <v>0.05021808988384746</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1866541540906643</v>
+        <v>0.1842759889603466</v>
       </c>
       <c r="F44" t="n">
-        <v>0.008110401250667193</v>
+        <v>0.002682121965271439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02306527734863699</v>
+        <v>0.06495930734778758</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06461501444007432</v>
+        <v>0.08691487944690798</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08057583669227882</v>
+        <v>0.02110092577277908</v>
       </c>
       <c r="J44" t="n">
-        <v>0.003711841447896649</v>
+        <v>0.02484166259282704</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02744918513145482</v>
+        <v>0.08237818033657007</v>
       </c>
       <c r="L44" t="n">
-        <v>0.004395453277932345</v>
+        <v>0.07295532820368812</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07112089408030463</v>
+        <v>0.06717079394230342</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0002952188531054032</v>
+        <v>0.00741655589384155</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08059033817872333</v>
+        <v>0.05336616910117079</v>
       </c>
       <c r="P44" t="n">
-        <v>0.005260506083139981</v>
+        <v>0.07664288879477844</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.009404676451712318</v>
+        <v>0.0411488884497514</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07874059405361426</v>
+        <v>0.05944138838382275</v>
       </c>
       <c r="S44" t="n">
-        <v>0.047403157371279</v>
+        <v>0.01950915323920854</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07778955129971361</v>
+        <v>0.02921280536473674</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07572620862955851</v>
+        <v>0.08631775729295287</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0620531466329069</v>
+        <v>0.04858516773089629</v>
       </c>
       <c r="W44" t="n">
-        <v>0.06639706087868566</v>
+        <v>0.07190614669566935</v>
       </c>
       <c r="X44" t="n">
-        <v>0.07775066189797908</v>
+        <v>0.01627453816015564</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.04015256286231068</v>
+        <v>0.01721514838267684</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.007224514721718199</v>
+        <v>0.000135478208450796</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07734081738390666</v>
+        <v>0.03524216765649544</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01082708103240064</v>
+        <v>0.01458254703725763</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.01569078809499338</v>
+        <v>0.0373975350966762</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1936677104203821</v>
+        <v>0.2192680753960028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01249932878642446</v>
+        <v>0.03000833011166181</v>
       </c>
       <c r="G45" t="n">
-        <v>0.06831451512880411</v>
+        <v>0.08382789739981732</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1088068403525156</v>
+        <v>0.08279072829528392</v>
       </c>
       <c r="I45" t="n">
-        <v>0.002591766606662492</v>
+        <v>0.02097135628345512</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0144922477946796</v>
+        <v>0.004971574487488701</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03673894524392707</v>
+        <v>0.0129309441068683</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01113161884780074</v>
+        <v>0.05149918312226855</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06821111371137442</v>
+        <v>0.05037449044849416</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03606261462255077</v>
+        <v>0.02957649045377293</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1138830546879224</v>
+        <v>0.0835219981225513</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09130857087994534</v>
+        <v>0.01903400352581012</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02610331504843375</v>
+        <v>0.032409655422439</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03810523158468201</v>
+        <v>0.03671997530231653</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01127577939247114</v>
+        <v>0.001952525350769189</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04249901838307994</v>
+        <v>0.002896109343479191</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04586415906390436</v>
+        <v>0.07080530501583586</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1109323551671607</v>
+        <v>0.09863007866512034</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07183077699147948</v>
+        <v>0.070858369955866</v>
       </c>
       <c r="X45" t="n">
-        <v>0.001902060532941888</v>
+        <v>0.08066439658379876</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01508300659604297</v>
+        <v>0.08919163677559762</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0247616045965425</v>
+        <v>0.02676227400888306</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0277285294255935</v>
+        <v>0.01618270943377918</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01987354655506081</v>
+        <v>0.003419967784642923</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0542986176153434</v>
+        <v>0.04062660362704599</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1426805102332113</v>
+        <v>0.1426579662578121</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0899333038023941</v>
+        <v>0.09389455783513662</v>
       </c>
       <c r="G46" t="n">
-        <v>0.008470050044679312</v>
+        <v>0.002157209240327906</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009230918955509329</v>
+        <v>0.06966957272709384</v>
       </c>
       <c r="I46" t="n">
-        <v>0.009899085190269278</v>
+        <v>0.0408153728610271</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06443445279834448</v>
+        <v>0.007538617373900633</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07140515866429167</v>
+        <v>0.0130826240887963</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02077325431161918</v>
+        <v>0.04976006776143214</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04389022184485474</v>
+        <v>0.004478104346592893</v>
       </c>
       <c r="N46" t="n">
-        <v>0.000388597309758856</v>
+        <v>0.01752780921262702</v>
       </c>
       <c r="O46" t="n">
-        <v>0.07025904222482313</v>
+        <v>0.02622166109974999</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01804626392965528</v>
+        <v>0.08095399045999561</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02525683998861314</v>
+        <v>0.02870403870843737</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07095460295509914</v>
+        <v>0.08460545685855338</v>
       </c>
       <c r="S46" t="n">
-        <v>0.07733661076127094</v>
+        <v>0.08684850069662796</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0401222287217594</v>
+        <v>0.02789887694430631</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08499177593144794</v>
+        <v>0.05896484653201377</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01713478408878542</v>
+        <v>0.01236466937716748</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08446495740848778</v>
+        <v>0.08100052857158688</v>
       </c>
       <c r="X46" t="n">
-        <v>0.01971334159556982</v>
+        <v>0.0836848673190531</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02649879477325408</v>
+        <v>0.04001666338488469</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07987861233356355</v>
+        <v>0.07776819389978791</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06259902817805202</v>
+        <v>0.002997864083999006</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.004318074187897437</v>
+        <v>0.009045906616901923</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.0371591993709563</v>
+        <v>-0.04011426250070976</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1603193586110106</v>
+        <v>0.1644532628818129</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08571963575299324</v>
+        <v>0.02418608922807883</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0114262815318139</v>
+        <v>0.02561134610372121</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04688586947045439</v>
+        <v>0.01357519523895926</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03145117399404928</v>
+        <v>0.00133121954129252</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01187686016509245</v>
+        <v>0.005583539378507306</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06198050543100466</v>
+        <v>0.0337002883839041</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02075693477866755</v>
+        <v>0.004893841337044989</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06981317352031165</v>
+        <v>0.08243582122011063</v>
       </c>
       <c r="N47" t="n">
-        <v>0.06012047223903137</v>
+        <v>0.01296787720487922</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07687876633124108</v>
+        <v>0.05394797792038893</v>
       </c>
       <c r="P47" t="n">
-        <v>0.002045627908097165</v>
+        <v>0.1014338218614245</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05337871930768005</v>
+        <v>0.1205598573046474</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0007187507952706266</v>
+        <v>0.02816845552193922</v>
       </c>
       <c r="S47" t="n">
-        <v>0.06028022173482828</v>
+        <v>0.005134148068598842</v>
       </c>
       <c r="T47" t="n">
-        <v>0.00974584080349563</v>
+        <v>0.06783902814515708</v>
       </c>
       <c r="U47" t="n">
-        <v>0.05993578648004418</v>
+        <v>0.02879702694314725</v>
       </c>
       <c r="V47" t="n">
-        <v>0.09116192352217208</v>
+        <v>0.03626537774552756</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01346953958262711</v>
+        <v>0.003956064340343142</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02477334061041581</v>
+        <v>0.1191950499987922</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07332342050808689</v>
+        <v>0.0866590258646695</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.08862417982976005</v>
+        <v>0.02145209747795045</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.003434832387017704</v>
+        <v>0.005932759433133664</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.04219814331584478</v>
+        <v>0.1163740917377822</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.05652672106063793</v>
+        <v>-0.05160746553427206</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1160171412589043</v>
+        <v>0.1153791947247525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02731964540577678</v>
+        <v>0.02655741892512484</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05429053128565992</v>
+        <v>0.01551980829430626</v>
       </c>
       <c r="H48" t="n">
-        <v>0.06706020678186189</v>
+        <v>0.07803638124398815</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07766255181490317</v>
+        <v>0.001398905739798372</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02941445053436281</v>
+        <v>0.06001470962143106</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003707496456230165</v>
+        <v>0.02310132868920143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.07726005799217407</v>
+        <v>0.02847564921128608</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06885735815118804</v>
+        <v>0.09411909898339323</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01362486278325852</v>
+        <v>0.01830315194961395</v>
       </c>
       <c r="O48" t="n">
-        <v>0.07565288059337226</v>
+        <v>0.1100586608313752</v>
       </c>
       <c r="P48" t="n">
-        <v>0.06298540637266423</v>
+        <v>0.09835355784462796</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.07486965543248893</v>
+        <v>0.006362500524532353</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02954958446430378</v>
+        <v>0.01514968908483939</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02571924612501305</v>
+        <v>0.004794671377477483</v>
       </c>
       <c r="T48" t="n">
-        <v>0.001084340677057881</v>
+        <v>0.001160693670585217</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07591860229136468</v>
+        <v>0.07173010093013242</v>
       </c>
       <c r="V48" t="n">
-        <v>0.006955592827887104</v>
+        <v>0.01471170525704432</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02879356260179705</v>
+        <v>0.1136845900448735</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07931044349322906</v>
+        <v>0.07692951944287876</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.01379119925478046</v>
+        <v>0.04341526080577651</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.02319043651412105</v>
+        <v>0.003496423828384631</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.001496969899543288</v>
+        <v>0.04493151866045247</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0814849182469619</v>
+        <v>0.04969465503887648</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1261627600801031</v>
+        <v>-0.08256421516848483</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1393959647066756</v>
+        <v>0.1478729217696454</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06572121327451266</v>
+        <v>0.09553355729612888</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02987983481926522</v>
+        <v>0.03751576870920056</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02101042677202595</v>
+        <v>0.006443878940018609</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02887355587430349</v>
+        <v>0.04957418885210516</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03176353178532049</v>
+        <v>0.00178171113397077</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04581927733659629</v>
+        <v>0.008792412992096684</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01375190189450895</v>
+        <v>0.01458442708247083</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06016989855650043</v>
+        <v>0.04404578123694409</v>
       </c>
       <c r="N49" t="n">
-        <v>0.008637661984405682</v>
+        <v>0.01032707109308991</v>
       </c>
       <c r="O49" t="n">
-        <v>0.06520154739459808</v>
+        <v>0.09698007693457485</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06160372982309405</v>
+        <v>0.02256880065187409</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.09140756082874764</v>
+        <v>0.08562159113808798</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07219305247712453</v>
+        <v>0.09321645006751685</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02646195985178192</v>
+        <v>0.06536665368437766</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01544285134663018</v>
+        <v>0.0002672965347923802</v>
       </c>
       <c r="U49" t="n">
-        <v>0.04697132667621368</v>
+        <v>0.01291913563769351</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07160678567962812</v>
+        <v>0.03568334452744711</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003609146283286803</v>
+        <v>0.01125561058670965</v>
       </c>
       <c r="X49" t="n">
-        <v>0.003017204246564341</v>
+        <v>0.01501099930795603</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09520044064295491</v>
+        <v>0.09038894925650209</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02801354732042187</v>
+        <v>0.08922375710944311</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.02224152852802674</v>
+        <v>0.05392309644842228</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.09140201660348808</v>
+        <v>0.05897544077857677</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1421621662213478</v>
+        <v>-0.155711390964151</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1171820489075626</v>
+        <v>0.1169704035639557</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0467612953897344</v>
+        <v>0.08136950727341166</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0500510741109052</v>
+        <v>0.1021917313009366</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03696505876258026</v>
+        <v>0.0006437489349082667</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05168065152862748</v>
+        <v>0.008410522387389185</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08621237614219877</v>
+        <v>0.05644117851319159</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01189408847333965</v>
+        <v>0.007328259600849146</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0136355387172028</v>
+        <v>0.02440342952895388</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06197388147407877</v>
+        <v>0.08079871376863099</v>
       </c>
       <c r="N50" t="n">
-        <v>0.009562880407815102</v>
+        <v>0.01022793516628282</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06141856046792143</v>
+        <v>0.02309435974162811</v>
       </c>
       <c r="P50" t="n">
-        <v>0.08156563934397185</v>
+        <v>0.05427655800893334</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0549260563869461</v>
+        <v>0.07605811355630096</v>
       </c>
       <c r="R50" t="n">
-        <v>0.04223357121488084</v>
+        <v>0.02095381354057039</v>
       </c>
       <c r="S50" t="n">
-        <v>0.00624160541876382</v>
+        <v>0.005326093893130683</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0240557881320087</v>
+        <v>0.01234971418624564</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08349015313512974</v>
+        <v>0.05111659463939614</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0146428235289734</v>
+        <v>0.05061470163335872</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07328872460308308</v>
+        <v>0.06228504296688336</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07960801563649629</v>
+        <v>0.06820883115794861</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.03806919192611134</v>
+        <v>0.00565428889810502</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.04154994597490929</v>
+        <v>0.09566027879448981</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.01394428015836999</v>
+        <v>0.09815586325090535</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01622879906595175</v>
+        <v>0.004430719257549696</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1008538979215984</v>
+        <v>0.1326565210207497</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1248125923694085</v>
+        <v>0.1253309524269133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1140612449341891</v>
+        <v>0.1007821921308316</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03083090149778445</v>
+        <v>0.03071382437296668</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02071203066919014</v>
+        <v>0.04213320645590584</v>
       </c>
       <c r="I51" t="n">
-        <v>0.03069662595143965</v>
+        <v>0.002266726508896353</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0009257167235800032</v>
+        <v>0.03927600952578964</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0146441449830723</v>
+        <v>0.04669019118406997</v>
       </c>
       <c r="L51" t="n">
-        <v>0.004532114807540362</v>
+        <v>0.02934743212203148</v>
       </c>
       <c r="M51" t="n">
-        <v>0.05591093960012528</v>
+        <v>0.05773096423655846</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01842177911645519</v>
+        <v>0.006152230420962468</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03680590782460873</v>
+        <v>0.01090467745479686</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1060048815008086</v>
+        <v>0.09515249907249246</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04591150637033373</v>
+        <v>0.02683464318268274</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09308458007147703</v>
+        <v>0.09436904937141527</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03453610339217291</v>
+        <v>0.01689347286482895</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04196474679607882</v>
+        <v>0.02174793876562249</v>
       </c>
       <c r="U51" t="n">
-        <v>0.003487481686557333</v>
+        <v>0.00706473022088613</v>
       </c>
       <c r="V51" t="n">
-        <v>0.004300114088397845</v>
+        <v>0.01283677742410553</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06676414472297733</v>
+        <v>0.08938736153141534</v>
       </c>
       <c r="X51" t="n">
-        <v>0.06639102051465939</v>
+        <v>0.08799132125697398</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.08312895764999643</v>
+        <v>0.06646723740929253</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.01299188890693778</v>
+        <v>0.02538505886434568</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.09993048601695066</v>
+        <v>0.008202353253023155</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.01396268217466693</v>
+        <v>0.08167010237010647</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.149970399068011</v>
+        <v>0.1378309156399299</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1211255573181763</v>
+        <v>0.1205452180744141</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01413883854971726</v>
+        <v>0.01548608767985989</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06308176982466795</v>
+        <v>0.07061128583763526</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08020040368918174</v>
+        <v>0.02540518824084064</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02690913393183536</v>
+        <v>0.02398890713306892</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06639028528993493</v>
+        <v>0.06148669261365578</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04946336521612991</v>
+        <v>0.02241820822446909</v>
       </c>
       <c r="L52" t="n">
-        <v>0.000711350293444858</v>
+        <v>0.01107264752673445</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03478227001249375</v>
+        <v>0.0241348875524928</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0006525922323153405</v>
+        <v>0.02640764975231323</v>
       </c>
       <c r="O52" t="n">
-        <v>0.06492795621047225</v>
+        <v>0.02821358746973934</v>
       </c>
       <c r="P52" t="n">
-        <v>0.07734120063525438</v>
+        <v>0.09320832544280624</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0888083830765687</v>
+        <v>0.08550044207077936</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02674531359291692</v>
+        <v>0.007105802077478377</v>
       </c>
       <c r="S52" t="n">
-        <v>0.004347490442405188</v>
+        <v>0.03939647441080136</v>
       </c>
       <c r="T52" t="n">
-        <v>0.09304184041553863</v>
+        <v>0.08904319134882212</v>
       </c>
       <c r="U52" t="n">
-        <v>0.04778635486967978</v>
+        <v>0.0840274301947776</v>
       </c>
       <c r="V52" t="n">
-        <v>0.00290972502244198</v>
+        <v>0.0233994294614681</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06968235470464768</v>
+        <v>0.08932449953252582</v>
       </c>
       <c r="X52" t="n">
-        <v>0.05396252252455171</v>
+        <v>0.03447695696744183</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02898947446876858</v>
+        <v>0.04721522072924492</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.001927653735068795</v>
+        <v>0.002497784268285381</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.077300556145148</v>
+        <v>0.0908295052373843</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.02589916511681642</v>
+        <v>0.004749796227375353</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05036030783333118</v>
+        <v>0.0536808935918659</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1429387612996146</v>
+        <v>0.1531002990777849</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05709820582725801</v>
+        <v>0.1039136728294583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05711734024804078</v>
+        <v>0.0925396826976196</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0259343163338585</v>
+        <v>0.01277078362412557</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01622525057500988</v>
+        <v>0.01262609694036494</v>
       </c>
       <c r="J53" t="n">
-        <v>0.001246060639036081</v>
+        <v>0.008019200762162051</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0158723777073095</v>
+        <v>0.02903861853073098</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01093666642610108</v>
+        <v>0.004671844422997996</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06849686767213445</v>
+        <v>0.1016467544437734</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01365364927856996</v>
+        <v>0.01587584055958898</v>
       </c>
       <c r="O53" t="n">
-        <v>0.04774725102898084</v>
+        <v>0.0317994087310893</v>
       </c>
       <c r="P53" t="n">
-        <v>0.09115718663323044</v>
+        <v>0.06793153656169988</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07190247717097507</v>
+        <v>0.06561316679509659</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02989639719504947</v>
+        <v>0.03116540369511409</v>
       </c>
       <c r="S53" t="n">
-        <v>0.009411017917729069</v>
+        <v>0.0542086354399509</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0003486523098417097</v>
+        <v>0.002573371163808971</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01899107244521463</v>
+        <v>0.02196714806132158</v>
       </c>
       <c r="V53" t="n">
-        <v>0.003485774050891291</v>
+        <v>0.01716492235885861</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07535391634341315</v>
+        <v>0.0427965253408167</v>
       </c>
       <c r="X53" t="n">
-        <v>0.08136882328295378</v>
+        <v>0.09227185666806108</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1005169666085254</v>
+        <v>0.1024877990138425</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.09394455071690433</v>
+        <v>0.0275120112807987</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.07962150980809782</v>
+        <v>0.04141770748026818</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0296736697808746</v>
+        <v>0.01998801259845117</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.07197494312611806</v>
+        <v>0.07384411119627586</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1436894639499181</v>
+        <v>0.1428707376450917</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0650275486759431</v>
+        <v>0.05585355991688623</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04147934813732899</v>
+        <v>0.00167641326677598</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02359581533605422</v>
+        <v>0.01893592927912548</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05597990468256566</v>
+        <v>0.04373952255563802</v>
       </c>
       <c r="J54" t="n">
-        <v>0.001971589794963723</v>
+        <v>0.003154059679790233</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04520484132177593</v>
+        <v>0.01433432752901017</v>
       </c>
       <c r="L54" t="n">
-        <v>0.07240818516257994</v>
+        <v>0.06512873336210111</v>
       </c>
       <c r="M54" t="n">
-        <v>0.051963284553776</v>
+        <v>0.06889387253644036</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04369681955423145</v>
+        <v>0.07457382531523638</v>
       </c>
       <c r="O54" t="n">
-        <v>0.009632878645396609</v>
+        <v>0.007295338639910773</v>
       </c>
       <c r="P54" t="n">
-        <v>0.08394489270679886</v>
+        <v>0.05858923335270363</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.09270664214434966</v>
+        <v>0.1188549400928521</v>
       </c>
       <c r="R54" t="n">
-        <v>0.09240629952225732</v>
+        <v>0.04357503557066011</v>
       </c>
       <c r="S54" t="n">
-        <v>0.006041000268695397</v>
+        <v>0.03762362858260957</v>
       </c>
       <c r="T54" t="n">
-        <v>0.001334615822497382</v>
+        <v>0.02800049825502818</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06271857962730641</v>
+        <v>0.08630082330146321</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01655377659366431</v>
+        <v>0.05848908061792217</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07774048901368118</v>
+        <v>0.1107922772306458</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04904555046922988</v>
+        <v>0.02826130038652789</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07299019407432765</v>
+        <v>0.01770574794960277</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01199870478687205</v>
+        <v>0.05077833087841108</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.009621724985439228</v>
+        <v>0.007416646376406361</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01193731412026492</v>
+        <v>2.687532425219694e-05</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.05486437953001948</v>
+        <v>-0.0455602742494054</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1605129108018831</v>
+        <v>0.1789078656677095</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08431766503259644</v>
+        <v>0.0980623693107221</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00536096203291795</v>
+        <v>0.08228694979809617</v>
       </c>
       <c r="H55" t="n">
-        <v>0.008933014054979815</v>
+        <v>0.0115039627029142</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03849039756518233</v>
+        <v>0.03632855032193266</v>
       </c>
       <c r="J55" t="n">
-        <v>0.004936006984324819</v>
+        <v>0.004182024816921378</v>
       </c>
       <c r="K55" t="n">
-        <v>0.04104319282514664</v>
+        <v>0.02608385785351775</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01300454296833575</v>
+        <v>0.01996069778523477</v>
       </c>
       <c r="M55" t="n">
-        <v>0.09499859804730405</v>
+        <v>0.09713486674249396</v>
       </c>
       <c r="N55" t="n">
-        <v>0.005854206825501495</v>
+        <v>0.08938979985487965</v>
       </c>
       <c r="O55" t="n">
-        <v>0.09371223711048131</v>
+        <v>0.00619726240860415</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06452933307145012</v>
+        <v>0.05055434742938184</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05511013017887707</v>
+        <v>0.02564439899086203</v>
       </c>
       <c r="R55" t="n">
-        <v>0.09067883204725768</v>
+        <v>0.02774724877738205</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02974219224528371</v>
+        <v>0.01092787307626967</v>
       </c>
       <c r="T55" t="n">
-        <v>0.02488961023199027</v>
+        <v>0.03363024768512627</v>
       </c>
       <c r="U55" t="n">
-        <v>0.02817888260748916</v>
+        <v>0.002530909828590706</v>
       </c>
       <c r="V55" t="n">
-        <v>0.03506376216748162</v>
+        <v>0.05905598813554661</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08327371550874546</v>
+        <v>0.02261893838902365</v>
       </c>
       <c r="X55" t="n">
-        <v>0.04812628872039576</v>
+        <v>0.009415163735292244</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.03681239612639597</v>
+        <v>0.100234794321245</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03642624599325522</v>
+        <v>0.1028057025494879</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.04135531962860082</v>
+        <v>0.0611489443906142</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03516246802600662</v>
+        <v>0.02255510109586095</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.0521859272596583</v>
+        <v>-0.04701755511397501</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2093050908021546</v>
+        <v>0.208972425918436</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02425946832468019</v>
+        <v>0.02223456976986161</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05895876605197761</v>
+        <v>0.06818634091827702</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08990741662196754</v>
+        <v>0.009498762206857699</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04291247600914554</v>
+        <v>0.08971473355613314</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04464127057320932</v>
+        <v>0.07163156891813434</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02896135387081947</v>
+        <v>0.03350493998952538</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0006024567199999502</v>
+        <v>0.01989974549496883</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05312411319696633</v>
+        <v>0.04137401186241171</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01142687577200883</v>
+        <v>0.0168844961652622</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0253660494695246</v>
+        <v>0.02163916107180272</v>
       </c>
       <c r="P56" t="n">
-        <v>0.04347920783853952</v>
+        <v>0.07221789206781896</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.08601419408464027</v>
+        <v>0.08383470911222078</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09232239811299427</v>
+        <v>0.09674109722391473</v>
       </c>
       <c r="S56" t="n">
-        <v>0.006119922952604338</v>
+        <v>0.005566644029599999</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01208509813278957</v>
+        <v>0.002021412187843019</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03600484841979375</v>
+        <v>0.08906347947169577</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02066107516272192</v>
+        <v>0.005626729532074643</v>
       </c>
       <c r="W56" t="n">
-        <v>0.09258129863573178</v>
+        <v>0.03512405010982046</v>
       </c>
       <c r="X56" t="n">
-        <v>0.03001536932131511</v>
+        <v>0.08097349752637303</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.08867616855599056</v>
+        <v>0.05791684422888275</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0504203840843505</v>
+        <v>0.01921672698474974</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.06108896147845704</v>
+        <v>0.03153921483708269</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.0003708266097720106</v>
+        <v>0.02558937273468891</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07882683552451322</v>
+        <v>0.04470127403729982</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2320749628607992</v>
+        <v>0.2279706475423229</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02117222276750769</v>
+        <v>0.09533106627277262</v>
       </c>
       <c r="G57" t="n">
-        <v>0.008688644178895193</v>
+        <v>0.02026504653856681</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02438638791153668</v>
+        <v>0.02944297386965379</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03494105247130198</v>
+        <v>0.03369109196950149</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01356813552103775</v>
+        <v>0.004626062358349015</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02958454585502682</v>
+        <v>0.03424405312168797</v>
       </c>
       <c r="L57" t="n">
-        <v>0.000493146844731982</v>
+        <v>0.004518934845093987</v>
       </c>
       <c r="M57" t="n">
-        <v>0.07778576883965251</v>
+        <v>0.09636439231684393</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03468044215135781</v>
+        <v>0.04566099384614328</v>
       </c>
       <c r="O57" t="n">
-        <v>0.07847306694635159</v>
+        <v>0.09170059832428107</v>
       </c>
       <c r="P57" t="n">
-        <v>0.05592585082996689</v>
+        <v>0.009497917621027188</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0170512344906494</v>
+        <v>0.04421686255210529</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05981063884592346</v>
+        <v>0.08543140222703736</v>
       </c>
       <c r="S57" t="n">
-        <v>0.03918216694545745</v>
+        <v>0.04026908221831231</v>
       </c>
       <c r="T57" t="n">
-        <v>0.008649142097871753</v>
+        <v>0.07083309693725791</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08153205626639244</v>
+        <v>0.02278286069313984</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01115805169895037</v>
+        <v>0.0152177718520292</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03435217036835801</v>
+        <v>0.03691189458639714</v>
       </c>
       <c r="X57" t="n">
-        <v>0.09479159361310079</v>
+        <v>0.0459653355893956</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.1010706180552847</v>
+        <v>0.05018704565663392</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.1130813531230263</v>
+        <v>0.07053177947014229</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02288894420576657</v>
+        <v>0.03895889066107126</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.03673276597185204</v>
+        <v>0.01335084647255658</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.04333048668230689</v>
+        <v>0.06861820902896697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1362707769444083</v>
+        <v>0.1352466878138595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0822506311893783</v>
+        <v>0.02012212282434961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1042329974676029</v>
+        <v>0.01420579665401619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01831698718406998</v>
+        <v>0.04284471932381235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00408416395639046</v>
+        <v>0.08819281707757026</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04404604521859395</v>
+        <v>0.03070803127997001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05543401645922288</v>
+        <v>0.04600192461397281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01146965178044767</v>
+        <v>0.0848564458792084</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03849240710881554</v>
+        <v>0.04623642163355666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002549837074978546</v>
+        <v>0.003015784583779232</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06529580685451415</v>
+        <v>0.1028479272469447</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04625379783126678</v>
+        <v>0.07681440721422936</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02269537188023572</v>
+        <v>0.0144483702302683</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09590023800318198</v>
+        <v>0.06990234160662656</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0009773318694365899</v>
+        <v>0.009184691016315617</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005589047042195426</v>
+        <v>0.004472661938680745</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02099224061587326</v>
+        <v>0.02282083078209906</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08856788829708893</v>
+        <v>0.0643770911902105</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05249983309703014</v>
+        <v>0.06658249598489206</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04347075817370145</v>
+        <v>0.08577295196814767</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06830330813531661</v>
+        <v>0.0002352440133169209</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04220467949492702</v>
+        <v>0.05380303665342071</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05849251813818164</v>
+        <v>0.04811616119702616</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02788044312754994</v>
+        <v>0.004437725087586162</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08780144004532819</v>
+        <v>0.1132309489190599</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1605381650879977</v>
+        <v>0.1588141327471619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04570320366615495</v>
+        <v>0.01454617629494484</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03504786830571457</v>
+        <v>0.002813001161416565</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02489663250673697</v>
+        <v>0.06306807905446521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03234880775220983</v>
+        <v>0.0593957794097861</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04921534060706544</v>
+        <v>0.06965076665840204</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05370246199375305</v>
+        <v>0.03073745469080825</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02822319724382517</v>
+        <v>0.03884109041928904</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09155589033794358</v>
+        <v>0.0943667657734031</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09220552209334769</v>
+        <v>0.04893130133283</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02863372340527128</v>
+        <v>0.02112731692800424</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01865040982955672</v>
+        <v>0.03199354210119876</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07303574373114659</v>
+        <v>0.0569549591416562</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08697773359493993</v>
+        <v>0.08450073429819686</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00174386344435671</v>
+        <v>0.00584727755921964</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001999405334929861</v>
+        <v>0.001428486303907467</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0644321591105541</v>
+        <v>0.05408723230827334</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07332663522893743</v>
+        <v>0.07776755043718825</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05969834934089552</v>
+        <v>0.04287738785868987</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005925836161052743</v>
+        <v>0.07391929742290096</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.006011120084978287</v>
+        <v>0.03865225243874486</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002319101285280859</v>
+        <v>0.0005648022265264807</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02947957602974884</v>
+        <v>0.007633802463803291</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09486741891160001</v>
+        <v>0.08029494371634457</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09202401271684942</v>
+        <v>0.07999476026304553</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1410724573028578</v>
+        <v>0.1377112928271651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02601090638277364</v>
+        <v>0.04161130966687556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04256703533889655</v>
+        <v>0.01511068723759623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07993065924782287</v>
+        <v>0.01654933529992932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06942088440571274</v>
+        <v>0.03625238970981329</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05672528021197552</v>
+        <v>0.06131601817772876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03301731545108957</v>
+        <v>0.0332276561950107</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003255664875699855</v>
+        <v>0.01398391327929531</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04387751254764605</v>
+        <v>0.03546551016184028</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05210197246773712</v>
+        <v>0.09334481114464872</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01621324098721474</v>
+        <v>0.07269625571108325</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07051984767386059</v>
+        <v>0.1107455119241859</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02732726847330595</v>
+        <v>0.0332048166517767</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09198807279508601</v>
+        <v>0.04195417402892949</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07133434187653571</v>
+        <v>0.03738002827160397</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01369970121549017</v>
+        <v>0.001545856292208148</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06951028376446622</v>
+        <v>0.04011395592799526</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03126061629495053</v>
+        <v>0.02833323537708802</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02285723878525124</v>
+        <v>0.07560125419834778</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05158467208650169</v>
+        <v>0.02748506513733426</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04769791281496649</v>
+        <v>0.1027645149588705</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07225583286504539</v>
+        <v>0.07414571734883024</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.002041077564421187</v>
+        <v>0.004974930917648616</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.004802661873549725</v>
+        <v>0.002193052381359516</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.009203472610279827</v>
+        <v>0.001884135350643496</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1469772034802011</v>
+        <v>0.1514746844793164</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05104891908562674</v>
+        <v>0.04640592749899317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01423946497894077</v>
+        <v>0.01798683703209496</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08720641529411348</v>
+        <v>0.06249835074673748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0786830650274018</v>
+        <v>0.07321658132543549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0464031122308425</v>
+        <v>0.01086830250430983</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005330108145294101</v>
+        <v>0.02097951634691626</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01952718086221047</v>
+        <v>0.01264759672431244</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06344355309629336</v>
+        <v>0.03634872313338079</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01801207754520475</v>
+        <v>0.00462145800246889</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05748671647916571</v>
+        <v>0.01791363635858655</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01715626774026754</v>
+        <v>0.05254616165504793</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08062541210813427</v>
+        <v>0.09395959549890605</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08314599745924717</v>
+        <v>0.09001093004906212</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09054882526965037</v>
+        <v>0.09329555352733993</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0242983191874537</v>
+        <v>0.03796502260200599</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06985732277739985</v>
+        <v>0.05188250124076334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.007625596192572621</v>
+        <v>0.07177922801734773</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01986058789253748</v>
+        <v>0.04052693541734605</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1000246417293478</v>
+        <v>0.07440871631532839</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03478046597481979</v>
+        <v>0.02722468648955956</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002284015382683692</v>
+        <v>0.01747531745040948</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0135069369090036</v>
+        <v>0.003105271118468932</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01490499863178853</v>
+        <v>0.04233315094517876</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05296606007633486</v>
+        <v>0.02139826697649108</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1409471068908341</v>
+        <v>0.1409828020535983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09555464638698336</v>
+        <v>0.09227299424516776</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05067199379024266</v>
+        <v>0.05231158990215957</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01726771255065666</v>
+        <v>0.00168349038045614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03632635290151816</v>
+        <v>0.01584421102111705</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07654118454632274</v>
+        <v>0.007501092692185486</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07883697029224865</v>
+        <v>0.08803595282466288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0223495228261265</v>
+        <v>0.04143246846598969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0259834248842723</v>
+        <v>0.01958429967038166</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005326299455943073</v>
+        <v>0.06119538713938305</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0884988273994525</v>
+        <v>0.07124075956993488</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02932229632897722</v>
+        <v>0.008575356898947893</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0318391867020549</v>
+        <v>0.004477038494896594</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03017994732967682</v>
+        <v>0.09491722029069909</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08353183529995108</v>
+        <v>0.08774340500878955</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08612958015380019</v>
+        <v>0.06816887747729805</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04620277384977851</v>
+        <v>0.03458586046937005</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01941715284096291</v>
+        <v>0.02148386993425135</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08165780792894542</v>
+        <v>0.09412897395209184</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01155461883367838</v>
+        <v>0.01518289450919141</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004886329487160394</v>
+        <v>0.02973387663644605</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06499792054851596</v>
+        <v>0.07930393396637334</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0008682877283590554</v>
+        <v>0.004078663601327807</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01205532793437251</v>
+        <v>0.006517782848878806</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2254735375273857</v>
+        <v>-0.2184643526377449</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1976420229974838</v>
+        <v>0.1933267207522094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03598101421425618</v>
+        <v>0.1074077497727309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00775006451584575</v>
+        <v>0.040484831551509</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08128877969791896</v>
+        <v>0.02180467121486606</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04601891559421297</v>
+        <v>0.0639576755724985</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04047692951410715</v>
+        <v>0.06432171877386474</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02452029980278523</v>
+        <v>0.05110302030541307</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07515690301189877</v>
+        <v>0.08616585953505321</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002631217882046942</v>
+        <v>0.03089075783053349</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01259397575804029</v>
+        <v>0.02821338299258111</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07099678604597853</v>
+        <v>0.002850285003431258</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001125769403144216</v>
+        <v>0.005929374386740837</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1121071359180841</v>
+        <v>0.06100833558174341</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07479938819655424</v>
+        <v>0.02694515124975682</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02087239190850412</v>
+        <v>0.007642813107754032</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01670768800680253</v>
+        <v>0.006278731576519095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.006766742883677845</v>
+        <v>0.005935704846857957</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09330356643086848</v>
+        <v>0.01776809054836292</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007039133006889626</v>
+        <v>0.1001975597725517</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04221377670556427</v>
+        <v>0.002760657090802735</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004564909486439088</v>
+        <v>0.0568493662457831</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02170393621958919</v>
+        <v>0.01175582449603275</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.117548273759239</v>
+        <v>0.1042115548237249</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08383240203755236</v>
+        <v>0.09551688372088853</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2606665125120894</v>
+        <v>-0.2549660960028569</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1560149876477624</v>
+        <v>0.1608013333646404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05456624053785246</v>
+        <v>0.02345913841513672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01867741578210056</v>
+        <v>0.02556706996585627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05794586297093578</v>
+        <v>0.03441111588211423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07550432859481651</v>
+        <v>0.08393027887151963</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02045193131291147</v>
+        <v>0.02757565790307345</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00076095843873041</v>
+        <v>0.01489193074919354</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008343221576401917</v>
+        <v>0.01874585465611858</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02450118277148269</v>
+        <v>0.03250677737611569</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002812363313433482</v>
+        <v>0.01145535199829871</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03750366266123673</v>
+        <v>0.08565792009769492</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04560566121545898</v>
+        <v>0.04978306045064684</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007957416741108985</v>
+        <v>0.01305498847251833</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09690633563985221</v>
+        <v>0.06071252635268361</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06082771762016904</v>
+        <v>0.02815460703820995</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07227213257208381</v>
+        <v>0.08839645634881797</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04112316056747856</v>
+        <v>0.002671240885230329</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02403580721659718</v>
+        <v>0.006497800076553643</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005942625406099325</v>
+        <v>0.06167237480211122</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04394375657750801</v>
+        <v>0.06517648942262974</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08699145104266398</v>
+        <v>0.06939209330403645</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04308521684852202</v>
+        <v>0.06270069730545982</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0739897538160582</v>
+        <v>0.04900382107171754</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09625179677649745</v>
+        <v>0.08458274855426268</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3924973142448263</v>
+        <v>-0.3874074037318599</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1973596246254475</v>
+        <v>0.1824667059907659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04985366131168137</v>
+        <v>0.02087693486003604</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004157446685273647</v>
+        <v>0.02460358392311323</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07958874950580117</v>
+        <v>0.0333068156008997</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09637051293686472</v>
+        <v>0.05714111156081135</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002791864247527511</v>
+        <v>0.009153843368545474</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01186998287035744</v>
+        <v>0.03860861330907884</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08307682925084386</v>
+        <v>0.0003128195220728861</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006084483425071607</v>
+        <v>0.011356318992475</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03675045780265283</v>
+        <v>0.002641883577748695</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02315195895952664</v>
+        <v>0.07426138353265752</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02140567186215667</v>
+        <v>0.005326632528437826</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09409732172108065</v>
+        <v>0.1154565499421702</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0594506737613431</v>
+        <v>0.1148338926797398</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02806065512424223</v>
+        <v>0.01652822289792462</v>
       </c>
       <c r="T9" t="n">
-        <v>0.008891941644931447</v>
+        <v>0.1006826641816613</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04836766165773421</v>
+        <v>0.02041336640430167</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004899407749023241</v>
+        <v>2.405956655322023e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03048881047956156</v>
+        <v>0.01190784814456113</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01719931478961561</v>
+        <v>0.05101282057957605</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09579660478830143</v>
+        <v>0.0640557196495217</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05488834738508135</v>
+        <v>0.07687364844154577</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07568129136608803</v>
+        <v>0.01491667299300581</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06707635067523965</v>
+        <v>0.1357045937435621</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.352611259055911</v>
+        <v>-0.4355255419159755</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2585326136967236</v>
+        <v>0.2678844732074523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09639110495514444</v>
+        <v>0.02828948799803689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01481915575221035</v>
+        <v>0.05981421866901521</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02511485483112801</v>
+        <v>0.02881927978590362</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04808204352056041</v>
+        <v>0.0699359114825609</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01276610624765155</v>
+        <v>0.02661619384158576</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009688813662262751</v>
+        <v>0.03785968685007906</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02725989694877626</v>
+        <v>0.002884870399157288</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002227261723096015</v>
+        <v>0.03685114710511112</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01896315431656226</v>
+        <v>0.006440485549620105</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02614738025973627</v>
+        <v>0.04470624923445644</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07047003051998729</v>
+        <v>0.09737975503404681</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007139370912585329</v>
+        <v>0.05706945153155919</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06279548200291603</v>
+        <v>0.09326628096694127</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09233617015884424</v>
+        <v>0.09684697684371317</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01231013895077603</v>
+        <v>0.0008930277854613575</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08154398503864585</v>
+        <v>0.07672469226885885</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0155958938328</v>
+        <v>0.02182130193250231</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08778063130136643</v>
+        <v>0.09340401824559121</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06349943397023318</v>
+        <v>0.03193747692248842</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09058574755039776</v>
+        <v>0.002729857043775197</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05726369270984998</v>
+        <v>0.07650735453545184</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05684995228546151</v>
+        <v>0.004706724257847911</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02036969854900816</v>
+        <v>0.004495551716235981</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.0292761444383459</v>
+        <v>-0.03807182547976942</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3973796842159626</v>
+        <v>0.3807392362566666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008447893815185766</v>
+        <v>0.08912065370267243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003659858617952495</v>
+        <v>0.009031968667366483</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03232686621410554</v>
+        <v>0.01735022609983997</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002672077631026876</v>
+        <v>0.06104137225908354</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02412164364630526</v>
+        <v>0.01634547476561723</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1130789581222567</v>
+        <v>0.04071278198036185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002595473324261644</v>
+        <v>0.01498896396007598</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07413297569462958</v>
+        <v>0.001590801219162795</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01063409212040795</v>
+        <v>0.01415662437429626</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01878977905479183</v>
+        <v>0.02385166736870005</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09381650838652227</v>
+        <v>0.03958292245818948</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0544452850306556</v>
+        <v>0.003646477618112244</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03038603457397302</v>
+        <v>0.04127955635473989</v>
       </c>
       <c r="S11" t="n">
-        <v>0.06437503127629451</v>
+        <v>0.00104132564503095</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04235264118449799</v>
+        <v>0.100995042422098</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02064071503555103</v>
+        <v>0.05994356139274888</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1174466187703227</v>
+        <v>0.1007991387919768</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02345064078782768</v>
+        <v>0.07213171815231377</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0201296812397599</v>
+        <v>0.03192905154418699</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05121148251042788</v>
+        <v>0.0353253662023532</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06377582172798626</v>
+        <v>0.07853020539231054</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05766038779338883</v>
+        <v>0.03907688881538098</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.072185459433704</v>
+        <v>0.1075282108133817</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04262529026098123</v>
+        <v>0.0753273591192322</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2620506564986694</v>
+        <v>0.2624943097055601</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04704207018248822</v>
+        <v>0.0173608404296214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002863555332591017</v>
+        <v>0.02763280476658463</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06853773526127122</v>
+        <v>0.08117021530991855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0655691517150496</v>
+        <v>0.08878545501698444</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06740413152287576</v>
+        <v>0.04114345999135318</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00808468237106031</v>
+        <v>0.01984905247127033</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01463803969507383</v>
+        <v>0.0001217897425165262</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03604609660211216</v>
+        <v>0.03171634129004773</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02103550747911031</v>
+        <v>0.0003304748401376236</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008098105410225584</v>
+        <v>0.02115526773855464</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03157438477018353</v>
+        <v>0.08099307337535745</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02672148857731638</v>
+        <v>0.03892785865564904</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06470205993154578</v>
+        <v>0.103531816140979</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07927523532355636</v>
+        <v>0.05847579333540545</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04500937933797249</v>
+        <v>0.001179947385031569</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05686239067711484</v>
+        <v>0.0450413731386935</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002667141303102143</v>
+        <v>0.005378183425375532</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08720310205735288</v>
+        <v>0.06946294504622567</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0977737056202926</v>
+        <v>0.02531754456676236</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0447197739261657</v>
+        <v>0.04036706031815326</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05389608852849087</v>
+        <v>0.09987159063954593</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02225876494472354</v>
+        <v>0.06310841722036166</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04801740943032493</v>
+        <v>0.03907869515547063</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2178775189809439</v>
+        <v>0.2179881036386403</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3618422662219663</v>
+        <v>0.350249252445557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02754194121021197</v>
+        <v>0.01538442299345063</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01102507243834539</v>
+        <v>0.001309454716578753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09237146999560344</v>
+        <v>0.03903208307648245</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04159894647586582</v>
+        <v>0.02425828206636658</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03082746203024788</v>
+        <v>0.04825643840834518</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05727362534883914</v>
+        <v>0.02588237325282014</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08826209437994502</v>
+        <v>0.01419758382023241</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02131063651584313</v>
+        <v>0.1062623340623836</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09470820272620145</v>
+        <v>0.08497454604513099</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0354580335553254</v>
+        <v>0.02798736364665333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04601062670879284</v>
+        <v>0.0967320249267668</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006038044571571238</v>
+        <v>0.01822207940295847</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02744854236852126</v>
+        <v>0.0571491997696003</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04450994909547356</v>
+        <v>0.01346804046793899</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007307434220398117</v>
+        <v>0.007807464043810145</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01824991494976804</v>
+        <v>0.06434938273755067</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1179016416998344</v>
+        <v>0.1263655350311123</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0212344731462078</v>
+        <v>0.02728026879243315</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06861934649246694</v>
+        <v>0.01809166274607259</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04423680362518653</v>
+        <v>0.05441039399734297</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.05021317804950811</v>
+        <v>0.06003635867887594</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006602581756871167</v>
+        <v>0.03427049640738265</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.04124997863897134</v>
+        <v>0.03427221090971098</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.286535152397906</v>
+        <v>0.2455546354235534</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2791432653147494</v>
+        <v>0.285380869927187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02275876376989705</v>
+        <v>0.1155526193398834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006716987864868169</v>
+        <v>0.02875357162021045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04587778563714526</v>
+        <v>0.1115317196241279</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01199995458054296</v>
+        <v>0.00941782932168248</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06416760972707343</v>
+        <v>0.02872621766590698</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03005056034806122</v>
+        <v>0.06815880097339355</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02530286686779775</v>
+        <v>0.01284172680595983</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004127405156076023</v>
+        <v>0.02103144580692064</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02858424080522887</v>
+        <v>0.009623644779639057</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01995202483909141</v>
+        <v>0.01723377426488628</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09321984280791296</v>
+        <v>0.007171313041889281</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09593600185028343</v>
+        <v>0.02731979556692583</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09221447319940744</v>
+        <v>0.1055492974643529</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04018058302608552</v>
+        <v>0.07298025632836061</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01082737490678581</v>
+        <v>0.03913743989182292</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01394700774333308</v>
+        <v>0.003260796292554601</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01267256611303987</v>
+        <v>0.01489561946980311</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1023793413421936</v>
+        <v>0.1070758781148059</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0994949144439462</v>
+        <v>0.04925122503529669</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03200154047406312</v>
+        <v>0.002352105251619605</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03320761573132371</v>
+        <v>0.0776240145505717</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0529404129864265</v>
+        <v>0.005030040159887028</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06144012577941662</v>
+        <v>0.06548086862949919</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.01895751064732112</v>
+        <v>0.01218669362007548</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3351860513785595</v>
+        <v>0.3304262280183054</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01979778158572841</v>
+        <v>0.1052951482771532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005734253123363839</v>
+        <v>0.01900190101869108</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07139662745589762</v>
+        <v>0.08932160794491822</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05506315335967066</v>
+        <v>0.00116579955788031</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06453406283144444</v>
+        <v>0.09329188626484719</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00318578157610109</v>
+        <v>0.05504825087817274</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01013468881884015</v>
+        <v>0.02277134439819187</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01544648941563263</v>
+        <v>0.0102295342193489</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08482869298347885</v>
+        <v>0.04781077344313836</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0001943488837839762</v>
+        <v>0.01349685889186311</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01852222369524319</v>
+        <v>0.08068316708666055</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00123924229647341</v>
+        <v>0.005253918299704985</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08195034454649938</v>
+        <v>0.09164317979671512</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0538965707785242</v>
+        <v>0.03632216826935051</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03911558113237026</v>
+        <v>0.007556840777570903</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09319529471740517</v>
+        <v>0.02558407328784748</v>
       </c>
       <c r="V15" t="n">
-        <v>0.09279658674146636</v>
+        <v>0.100102709029176</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06448532802150367</v>
+        <v>0.03248631942984621</v>
       </c>
       <c r="X15" t="n">
-        <v>0.005487074812465103</v>
+        <v>0.01552752848324135</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001452950901533091</v>
+        <v>0.001844633503530158</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09432458758004215</v>
+        <v>0.002590009227743348</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04982964165129661</v>
+        <v>0.05721697270702644</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0733886930912359</v>
+        <v>0.085755375207382</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02728944632635594</v>
+        <v>0.04653306550818495</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2939232881720686</v>
+        <v>0.2925135532428035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08683469142157567</v>
+        <v>0.02924834848790319</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005692370643016797</v>
+        <v>0.006313578006700932</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01040855814282912</v>
+        <v>0.05468526194494669</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04476791528210761</v>
+        <v>0.03349658234338338</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02735602466786846</v>
+        <v>0.06298725436203394</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009528092674497482</v>
+        <v>0.004471296145735222</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07851928494297102</v>
+        <v>0.001006546692544333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03050943073146333</v>
+        <v>0.04934279402079973</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009339975729154952</v>
+        <v>0.02647785902092528</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01157660074360645</v>
+        <v>0.008611228968887802</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08577960880178627</v>
+        <v>0.0212781116651219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0501037108092711</v>
+        <v>0.05682089569850162</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1186365471442128</v>
+        <v>0.1124342762121508</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001005418953723445</v>
+        <v>0.009538285815707485</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01771982223189816</v>
+        <v>0.01356738356454397</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00720439808138838</v>
+        <v>0.06150821434874874</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02648383234772226</v>
+        <v>0.01699172426340387</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08489002649348609</v>
+        <v>0.06354615523118999</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1184393954705046</v>
+        <v>0.1046556695023057</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07912423283608168</v>
+        <v>0.1020181907066893</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.05141921877512374</v>
+        <v>0.0788784278130156</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001428538542609652</v>
+        <v>0.001767429031448549</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0518075879401486</v>
+        <v>0.08035448615331221</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1193543737835493</v>
+        <v>0.1372015492691846</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3753237381595173</v>
+        <v>0.3464956862987731</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02834687480284374</v>
+        <v>6.249046544610032e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009309773217441671</v>
+        <v>0.00243866367632578</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08963570946089811</v>
+        <v>0.007014018274116024</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03088847725015675</v>
+        <v>0.08249690072305559</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08694614986477794</v>
+        <v>0.08274193395236265</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002094558166781597</v>
+        <v>0.005342448856780134</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08970804199365573</v>
+        <v>0.02049383458255003</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004661414047381269</v>
+        <v>0.0161382229466427</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08007165191930228</v>
+        <v>0.02043754067654063</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05361351086374321</v>
+        <v>0.05473933850471688</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01252046612506296</v>
+        <v>0.07095918232874426</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00470358320557661</v>
+        <v>0.0651115352360854</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08349696836131132</v>
+        <v>0.09887839870460814</v>
       </c>
       <c r="S17" t="n">
-        <v>0.006940820244977172</v>
+        <v>0.01137206510953202</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04492984128361768</v>
+        <v>0.02527415586531708</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01868790132324536</v>
+        <v>0.08032097572864433</v>
       </c>
       <c r="V17" t="n">
-        <v>0.08921717157457731</v>
+        <v>0.09683765058513386</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07352693103330614</v>
+        <v>0.006606214603620917</v>
       </c>
       <c r="X17" t="n">
-        <v>0.005779524937831816</v>
+        <v>0.01941706221866237</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03646615723713647</v>
+        <v>0.000301443393310114</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07795988432046791</v>
+        <v>0.09691443068958644</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03131926647779975</v>
+        <v>0.08962148743904404</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03917532228810726</v>
+        <v>0.04648000543917472</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1795338430622062</v>
+        <v>0.1769554511433631</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2033793329831858</v>
+        <v>0.1973630716674962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04738413767777177</v>
+        <v>0.07275301612033459</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09415936411964536</v>
+        <v>0.02316325121948296</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06930839317737397</v>
+        <v>0.007120867843239796</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05232207695294702</v>
+        <v>0.08511933283491978</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02929739515521112</v>
+        <v>0.00497401950083688</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02091180105725046</v>
+        <v>0.0315078040345108</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02874025814677549</v>
+        <v>0.04711802300236846</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02360243273420463</v>
+        <v>0.02362807727272401</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01197810693508851</v>
+        <v>0.04535792956488794</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03459425116315922</v>
+        <v>0.01381374032682672</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02072673239062664</v>
+        <v>0.04488346507012391</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05649227728033166</v>
+        <v>0.01019466265930688</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08342213112082554</v>
+        <v>0.09059825695945914</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09964575404116592</v>
+        <v>0.05413944607386362</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02219354473826663</v>
+        <v>0.0285629387326087</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04219528660179162</v>
+        <v>0.08240104120662557</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01042360813186084</v>
+        <v>0.03965613281990547</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01643422418286657</v>
+        <v>0.07034379858820569</v>
       </c>
       <c r="X18" t="n">
-        <v>0.007537603163283976</v>
+        <v>0.009417776255137372</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.09314015491467111</v>
+        <v>0.0745494023816807</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06517559263796516</v>
+        <v>0.0824878352480586</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04906437668734178</v>
+        <v>0.008524919637997126</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02125049698957486</v>
+        <v>0.04968426264689504</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04239690756981041</v>
+        <v>0.06228022902889507</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2426932932988288</v>
+        <v>0.2515606725052692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02937056608193341</v>
+        <v>0.04749297394635809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02354842047523341</v>
+        <v>0.05825640730640455</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01286837833144789</v>
+        <v>0.05336884521496966</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02737771420031922</v>
+        <v>0.03685889902297804</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07387741942305605</v>
+        <v>0.08122328395691902</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07592667054271611</v>
+        <v>0.006739873875265239</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0619087329425406</v>
+        <v>0.07989367154674142</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01719955311229929</v>
+        <v>0.0812600199327094</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002414844587422929</v>
+        <v>0.001083260527142315</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01973742834677022</v>
+        <v>0.0335988415238196</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0792110469307805</v>
+        <v>0.0197445147670025</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008659137537303742</v>
+        <v>0.01780028189886777</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06741893068997577</v>
+        <v>0.08855958321493734</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08085100651992462</v>
+        <v>0.08002340556630613</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02880148963764679</v>
+        <v>0.02894380999352877</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08052041687202485</v>
+        <v>0.04879477538306175</v>
       </c>
       <c r="V19" t="n">
-        <v>0.05707183396884467</v>
+        <v>0.05121409025185151</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06765478260826409</v>
+        <v>0.01543867309065</v>
       </c>
       <c r="X19" t="n">
-        <v>0.002093344024202512</v>
+        <v>0.004557992717990819</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0116757855305068</v>
+        <v>0.01789821174168277</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06133839881673777</v>
+        <v>0.0304921258858297</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07445804876318092</v>
+        <v>0.02945324800094254</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03601605005686764</v>
+        <v>0.08730321063404099</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08773393159087975</v>
+        <v>0.07028610898038067</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1512832393607395</v>
+        <v>0.1555558242796329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05450834196998228</v>
+        <v>0.007884962284001682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0317927994298604</v>
+        <v>0.001779605860421066</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007206758204314684</v>
+        <v>0.01918436164656264</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07075661983675052</v>
+        <v>0.07842416861974429</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01586522758153647</v>
+        <v>0.02072767259108877</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01455668963504945</v>
+        <v>0.00961857463087994</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01551770065928911</v>
+        <v>0.02329636607545982</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06722559568575473</v>
+        <v>0.0423377061928576</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0225869056869512</v>
+        <v>0.0123481573824533</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02013279213295435</v>
+        <v>0.09014766949446495</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04378636261234227</v>
+        <v>0.06555372206099044</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03075061894245043</v>
+        <v>0.08938206799722927</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07590134540899218</v>
+        <v>0.09015191633620717</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07763261596112114</v>
+        <v>0.09945874276333513</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006275520967325181</v>
+        <v>0.05462681231563287</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06889882379920684</v>
+        <v>0.01551794253551857</v>
       </c>
       <c r="V20" t="n">
-        <v>0.004017105565831684</v>
+        <v>0.02291741261678424</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07844190430419665</v>
+        <v>0.06692334886003722</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01985112905281358</v>
+        <v>0.0256828787788672</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09036246790157908</v>
+        <v>0.05791984805449889</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05751641719411205</v>
+        <v>0.05173466728378166</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07555916772949053</v>
+        <v>0.02275473461385069</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05085708973809519</v>
+        <v>0.03162666100533249</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1487736286292619</v>
+        <v>-0.1452702048528579</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2083482718899206</v>
+        <v>0.192940806236221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08781935127064878</v>
+        <v>0.0889932594879216</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03457560555084683</v>
+        <v>0.0321816806360231</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02550793787594527</v>
+        <v>0.03931187295547554</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03289976142302457</v>
+        <v>0.05575559922896774</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05277186466551555</v>
+        <v>0.06849305228944176</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08820169761132376</v>
+        <v>0.02656565117290925</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03187601279078452</v>
+        <v>0.01979905997185245</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04145953123136922</v>
+        <v>0.01017743678287893</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03143252300930936</v>
+        <v>0.0202696374556522</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01259567768633285</v>
+        <v>0.01238093209969478</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02325708441243085</v>
+        <v>0.06603671316082511</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.004084950822845173</v>
+        <v>0.02063241819682524</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07735768025324775</v>
+        <v>0.04825877322851993</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06403962932832945</v>
+        <v>0.08641896365140073</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0150781727203101</v>
+        <v>0.02369458261436987</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03830552967180272</v>
+        <v>0.0003550172776908059</v>
       </c>
       <c r="V21" t="n">
-        <v>0.08371039027737937</v>
+        <v>0.07098957637664344</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07106559362497845</v>
+        <v>0.01738459939577863</v>
       </c>
       <c r="X21" t="n">
-        <v>0.009165229410327071</v>
+        <v>0.05332767155287309</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0001793282111182741</v>
+        <v>0.02559877132274918</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.03733513129649135</v>
+        <v>0.05077819320661162</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06035399615116274</v>
+        <v>0.06811514667604929</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07692732070447598</v>
+        <v>0.09448139125884553</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1800433447937272</v>
+        <v>-0.1776995314925533</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1869739082148197</v>
+        <v>0.1873285849282366</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1169140395827741</v>
+        <v>0.06247287337628508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04150449577124882</v>
+        <v>0.0003977257208107343</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06281388268221379</v>
+        <v>0.01368773117797699</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06073233663207541</v>
+        <v>0.0332584176026702</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02364764986975936</v>
+        <v>0.04915759274968341</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001024949495569841</v>
+        <v>0.01014030743668752</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001502319146312971</v>
+        <v>0.07354856329430511</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06414333183847633</v>
+        <v>0.05123193461152256</v>
       </c>
       <c r="N22" t="n">
-        <v>0.007150612396072294</v>
+        <v>0.010053622760648</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02369317320035007</v>
+        <v>0.04973955489127507</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06543010631855026</v>
+        <v>0.06297932050876658</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0001670015486170206</v>
+        <v>0.03555158738933804</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06707172086200405</v>
+        <v>0.07922228004588547</v>
       </c>
       <c r="S22" t="n">
-        <v>0.09998264743345812</v>
+        <v>0.0551318433221912</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01360759653990465</v>
+        <v>0.009660430324030295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07039961775251057</v>
+        <v>0.07180772904709201</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05952123633840414</v>
+        <v>0.05896785997183177</v>
       </c>
       <c r="W22" t="n">
-        <v>0.09956250773104053</v>
+        <v>0.08278223225548112</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01062938696776056</v>
+        <v>0.06564479973951697</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02208310588062645</v>
+        <v>0.04391849068115951</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01211821098831898</v>
+        <v>0.06939281448628726</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03984669321841005</v>
+        <v>0.007558659100203283</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03645337780554158</v>
+        <v>0.003693629506351919</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03735406771233536</v>
+        <v>0.04970126971753371</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2041983108432381</v>
+        <v>0.2162151229758512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07356083919985532</v>
+        <v>0.0945925263911112</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01847097990514327</v>
+        <v>0.09972619952130805</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03632820648402123</v>
+        <v>0.0007211859117343869</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08545414708510773</v>
+        <v>0.006780223930747673</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05465045478459951</v>
+        <v>0.1027173808694836</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0586154245265407</v>
+        <v>0.05250658510656984</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03931783531138371</v>
+        <v>0.01168249210526169</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04898344726403527</v>
+        <v>0.006265386319819738</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01600645979186778</v>
+        <v>0.04394783203927393</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08408091591691898</v>
+        <v>0.06290388382071324</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03685964711870196</v>
+        <v>0.03174078920199196</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002422477345420806</v>
+        <v>0.07375345124968533</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06183881599568717</v>
+        <v>0.09410984035255082</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03799423377809592</v>
+        <v>0.0005198801388387753</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03434220219124891</v>
+        <v>0.002766373796123273</v>
       </c>
       <c r="U23" t="n">
-        <v>0.009653466779904989</v>
+        <v>0.006536637313232244</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0809005864579329</v>
+        <v>0.05752909421142016</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07101532384197058</v>
+        <v>0.07848971487102033</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07594004963093401</v>
+        <v>0.006435995035871275</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.005865088209116407</v>
+        <v>0.008395909136961649</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05862879185395886</v>
+        <v>0.08933778117924246</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.00602108233843883</v>
+        <v>0.01930770992493661</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.003049524189115203</v>
+        <v>0.04923312757210169</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0618586224879247</v>
+        <v>0.04565979463589098</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1841426069883082</v>
+        <v>0.1903967166899544</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09512562426593973</v>
+        <v>0.08439606639299752</v>
       </c>
       <c r="G24" t="n">
-        <v>0.044136128019738</v>
+        <v>0.003743980403251988</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01732981768131151</v>
+        <v>0.005505213648991096</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04271998087293764</v>
+        <v>0.09493651750737345</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00601508318049791</v>
+        <v>0.008399594815333119</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002746666969936955</v>
+        <v>0.05334291964049977</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01795254582630415</v>
+        <v>0.0507042110660586</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01729132285679224</v>
+        <v>0.02991879327558456</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0005117570332682334</v>
+        <v>0.001250659601629085</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0309040642970577</v>
+        <v>0.05944891852897721</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1157251679340645</v>
+        <v>0.01320605804436891</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0403085302002443</v>
+        <v>0.08991013501210456</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08045890718535283</v>
+        <v>0.08310203532671696</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09589577391346593</v>
+        <v>0.09868456427666206</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02631534352454582</v>
+        <v>0.009537266684316599</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01597274630714451</v>
+        <v>0.01729737225932161</v>
       </c>
       <c r="V24" t="n">
-        <v>0.00337788609195862</v>
+        <v>0.02246371960907573</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05016938456402122</v>
+        <v>0.07983312697448414</v>
       </c>
       <c r="X24" t="n">
-        <v>0.115682686497221</v>
+        <v>0.09845157497608673</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.05344814852012613</v>
+        <v>0.006345746292198305</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02166970289816639</v>
+        <v>0.04452826194803136</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.09963782779712571</v>
+        <v>0.03597433640555783</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.006604903562778927</v>
+        <v>0.009018927310378913</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1080587264919119</v>
+        <v>0.118877049589962</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2105166752970824</v>
+        <v>0.2154691349627977</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09062994965211997</v>
+        <v>0.06994619064057317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04168245809569419</v>
+        <v>0.05316839464234486</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03818686374144151</v>
+        <v>0.005110330532041399</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04765920114933324</v>
+        <v>0.0004776331974563025</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07262342427305619</v>
+        <v>0.05337485551241773</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08074447465838623</v>
+        <v>0.08889614108771407</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04419451377097844</v>
+        <v>0.0145485336271015</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005163291667907459</v>
+        <v>0.07856869699492476</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0006033705380382156</v>
+        <v>0.01533121746487411</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09780398047186466</v>
+        <v>0.03750237725266819</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01125488969298082</v>
+        <v>0.04819341843829857</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.04033897906765667</v>
+        <v>0.0170603811300837</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0843756586354914</v>
+        <v>0.1033555172201257</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05540115816357719</v>
+        <v>0.01229637574768177</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006860614474512815</v>
+        <v>0.01019449466600336</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04746581142498627</v>
+        <v>0.0876061506378184</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02501491851149913</v>
+        <v>0.02061930887446481</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07330804362168587</v>
+        <v>0.09224574901971234</v>
       </c>
       <c r="X25" t="n">
-        <v>0.007443190374148347</v>
+        <v>0.057620644069686</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02310612736015139</v>
+        <v>0.03166380317881325</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06451514247540573</v>
+        <v>0.08760488427966714</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0008805185977938446</v>
+        <v>0.01241118409235596</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04074341958129048</v>
+        <v>0.002203717693172921</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1541904037717162</v>
+        <v>0.1417702597389913</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1962123735231945</v>
+        <v>0.1948742736060545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07524068260478237</v>
+        <v>0.0737947451727145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03155924951718665</v>
+        <v>0.001578128824096602</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04693404987768276</v>
+        <v>0.02956683180544034</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0175562488799213</v>
+        <v>0.008467735032855993</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05481401649174133</v>
+        <v>0.003038314003712538</v>
       </c>
       <c r="K26" t="n">
-        <v>0.008616323424338788</v>
+        <v>0.04826087738043976</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00884535806326805</v>
+        <v>0.05271497172340681</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07162354795437048</v>
+        <v>0.01750538582080084</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03980243331304252</v>
+        <v>0.01448428914747017</v>
       </c>
       <c r="O26" t="n">
-        <v>0.08217507676036137</v>
+        <v>0.08710011326208184</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09965162492169831</v>
+        <v>0.02201882870654769</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008125662384969522</v>
+        <v>0.07088940472014851</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09784617944879312</v>
+        <v>0.08986034228889465</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06492510891487378</v>
+        <v>0.1022986895613429</v>
       </c>
       <c r="T26" t="n">
-        <v>0.002858117548263654</v>
+        <v>0.003449595176809927</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07489629664487228</v>
+        <v>0.09485461376763504</v>
       </c>
       <c r="V26" t="n">
-        <v>0.08190916626709514</v>
+        <v>0.02596965913525356</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02501117325113326</v>
+        <v>0.05726393015147148</v>
       </c>
       <c r="X26" t="n">
-        <v>0.003673082633092988</v>
+        <v>0.08922003437470302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02101378586353246</v>
+        <v>0.02308188846342595</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01137552802448152</v>
+        <v>0.005986814955472992</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.05413702490416376</v>
+        <v>0.03230342934841925</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01741026230633424</v>
+        <v>0.04629137717685543</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.04008186082195228</v>
+        <v>0.05123459954186331</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2196366942621696</v>
+        <v>0.2322891089959872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06517587097517727</v>
+        <v>0.1169475341787165</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09112699832549327</v>
+        <v>0.02807539362426874</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07237428618932475</v>
+        <v>0.08541086100813408</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02115845643675817</v>
+        <v>0.05988515280374795</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0003629952188054137</v>
+        <v>0.007606121752313032</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06579352262340835</v>
+        <v>0.1032089829136433</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02226257950064681</v>
+        <v>0.008908832895998434</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01131010419947295</v>
+        <v>0.004154607733188293</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03152283758690624</v>
+        <v>0.01198771424772778</v>
       </c>
       <c r="O27" t="n">
-        <v>0.09890402958942947</v>
+        <v>0.1105438342646696</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01253087369531229</v>
+        <v>0.0001220045847446084</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05228865403283773</v>
+        <v>0.008349607578914059</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02662820034996023</v>
+        <v>0.02113457422891945</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03860747534436341</v>
+        <v>0.05482547096454235</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01585315654228875</v>
+        <v>0.06955759283997948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09628318397478326</v>
+        <v>0.01070711872157615</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03540417756136755</v>
+        <v>0.02092703146650435</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07284398363990521</v>
+        <v>0.1153262912022095</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09377549175968593</v>
+        <v>0.008634254130918933</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04800531004466908</v>
+        <v>0.02237245672304959</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0002905917684187968</v>
+        <v>0.05672634307942091</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01220373198151259</v>
+        <v>0.0444739664009081</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01529348865947245</v>
+        <v>0.0301142526559048</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04769684511658644</v>
+        <v>0.06795184545913183</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1996693900653416</v>
+        <v>0.2010252214003131</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05167527077306749</v>
+        <v>0.007746123127132761</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01417303479101372</v>
+        <v>0.01330228273994045</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01822363012152111</v>
+        <v>0.06539619024696916</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06370253313994197</v>
+        <v>0.09335694443887523</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03277291586865141</v>
+        <v>0.02351792673169448</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004163774575805998</v>
+        <v>0.003260541024703471</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00596655312974315</v>
+        <v>0.0195822652797312</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06711186785812055</v>
+        <v>0.08880523476379418</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005043541491642758</v>
+        <v>0.01947677325285458</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05349699367539336</v>
+        <v>0.02425708522113271</v>
       </c>
       <c r="P28" t="n">
-        <v>0.04895005166290673</v>
+        <v>0.04115458938841373</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03924822519141848</v>
+        <v>0.05604007720662642</v>
       </c>
       <c r="R28" t="n">
-        <v>0.08238163841337477</v>
+        <v>0.1179794294855011</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0612005944112031</v>
+        <v>0.05911324397677921</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02102791562213751</v>
+        <v>0.05324594191285506</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06489987016202937</v>
+        <v>0.09112926406287876</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03838400475931219</v>
+        <v>0.0002018482332712187</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05085709914684402</v>
+        <v>0.002764229482863764</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01833275771304364</v>
+        <v>0.09401118403442263</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02887695202851881</v>
+        <v>0.01205730859698398</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07982595662925035</v>
+        <v>0.002901397097156024</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.07962750142760298</v>
+        <v>0.0723322740433279</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.07005731740745645</v>
+        <v>0.03836784565209207</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1639230147903397</v>
+        <v>0.1455671779637235</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2382684489361139</v>
+        <v>0.2357651477705517</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09548930686655603</v>
+        <v>0.0204837640045138</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03543341999935481</v>
+        <v>0.03411076045713136</v>
       </c>
       <c r="H29" t="n">
-        <v>0.007016670422080133</v>
+        <v>0.0143386739313707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09962098511167536</v>
+        <v>0.08718744469225703</v>
       </c>
       <c r="J29" t="n">
-        <v>0.039075805894159</v>
+        <v>0.0217110293326528</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07297942744801474</v>
+        <v>0.106963213157921</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02328700212111047</v>
+        <v>0.01049162879267222</v>
       </c>
       <c r="M29" t="n">
-        <v>0.008484467530558834</v>
+        <v>0.06925980289485639</v>
       </c>
       <c r="N29" t="n">
-        <v>0.003173748128324243</v>
+        <v>0.02465323083370291</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08589195220367243</v>
+        <v>0.0903608142348192</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02118502304980453</v>
+        <v>0.017679286968938</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03680417371359476</v>
+        <v>0.03197008496970379</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01283791397613507</v>
+        <v>0.04582860667231936</v>
       </c>
       <c r="S29" t="n">
-        <v>0.005539815211018064</v>
+        <v>0.008121066672019183</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05576953949998639</v>
+        <v>0.05385980707284896</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06560013093686637</v>
+        <v>0.07324645007776499</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03359602400427121</v>
+        <v>0.06680112299535026</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04928210886490555</v>
+        <v>0.07612978904678895</v>
       </c>
       <c r="X29" t="n">
-        <v>0.03619379985900779</v>
+        <v>0.01864481719208808</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01964254625772991</v>
+        <v>0.02457481905283881</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07253506406031909</v>
+        <v>0.04909935419531242</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03349618882545935</v>
+        <v>0.01268682916945386</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.08706488601539569</v>
+        <v>0.04179760358267582</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1949935796757985</v>
+        <v>0.1914685022172364</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1615033439048324</v>
+        <v>0.1613581415936986</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005389656004818417</v>
+        <v>0.01419080108661598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06230573056290864</v>
+        <v>0.009497309393440309</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006512536048055069</v>
+        <v>0.003713177050680192</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01250288885334293</v>
+        <v>0.003263987933111439</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02777297790248838</v>
+        <v>0.03369012493544543</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01550972437984277</v>
+        <v>0.004531553899724776</v>
       </c>
       <c r="L30" t="n">
-        <v>0.08826867662579406</v>
+        <v>0.05106766700355522</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08142712811207238</v>
+        <v>0.07920970400013651</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03667153619106288</v>
+        <v>0.08375283394579661</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01758421419147881</v>
+        <v>0.09121962114729841</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08295632077350459</v>
+        <v>0.008151786173679749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.06726968228362915</v>
+        <v>0.03781956581081396</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06588394574045806</v>
+        <v>0.08206151812589199</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08062115863078888</v>
+        <v>0.05638280996320005</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03163590946892299</v>
+        <v>0.04616506543689596</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007845696087947707</v>
+        <v>0.001138182964882404</v>
       </c>
       <c r="V30" t="n">
-        <v>0.003309902132129117</v>
+        <v>0.02208230231878147</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07372369719254682</v>
+        <v>0.0628383561503406</v>
       </c>
       <c r="X30" t="n">
-        <v>0.07547621199455272</v>
+        <v>0.07112715293964091</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07038751152568687</v>
+        <v>0.05999526219966742</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.059589726965699</v>
+        <v>0.06960210235207058</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.006302500703839873</v>
+        <v>0.02137566896028801</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02105266762842993</v>
+        <v>0.08712344620804205</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02789225223439786</v>
+        <v>0.003601829977364633</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1950499081364919</v>
+        <v>0.1969398399907837</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02849543261619488</v>
+        <v>0.03651768151276677</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09015009230852727</v>
+        <v>0.09285531714492309</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01997680616581636</v>
+        <v>0.03251511469179725</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02047268630366208</v>
+        <v>0.03194162299702846</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01036971162064244</v>
+        <v>0.0193999855314612</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09093285384441722</v>
+        <v>0.06046949870777566</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08950237519763427</v>
+        <v>0.08679922141765771</v>
       </c>
       <c r="M31" t="n">
-        <v>0.004492788582709939</v>
+        <v>0.01483520083049843</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01738964656955988</v>
+        <v>0.04468640254943831</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05776037658770209</v>
+        <v>0.09446949591799161</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06520760449536314</v>
+        <v>0.09946259944423859</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01444286343886974</v>
+        <v>0.03001150087045287</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01868440007832</v>
+        <v>0.03230306388673133</v>
       </c>
       <c r="S31" t="n">
-        <v>0.009740795206636919</v>
+        <v>0.01995691161705862</v>
       </c>
       <c r="T31" t="n">
-        <v>0.08189356420492175</v>
+        <v>0.02044953016962839</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03954806348460498</v>
+        <v>0.008218262506069083</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08856668488892598</v>
+        <v>0.1055302012471874</v>
       </c>
       <c r="W31" t="n">
-        <v>0.08509993857922619</v>
+        <v>0.04779778865828181</v>
       </c>
       <c r="X31" t="n">
-        <v>0.04247819483812287</v>
+        <v>0.01550569198144314</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02525439603121631</v>
+        <v>0.01074364449578164</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0563888468647001</v>
+        <v>0.04017182543444863</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.03593880313438573</v>
+        <v>0.01076014217675882</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.007213074957839606</v>
+        <v>0.04459929621058124</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.04379583579400411</v>
+        <v>0.03033663655102923</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1322466023039093</v>
+        <v>0.1353870992749216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05130446278387985</v>
+        <v>0.05843902382563282</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07660820867920545</v>
+        <v>0.0730133763202947</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03204674020907211</v>
+        <v>0.01539099903704438</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0531303300744619</v>
+        <v>0.04002837712148684</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003144516586177362</v>
+        <v>0.04145731304627669</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01244985875464955</v>
+        <v>0.002958297211112518</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01770117512758749</v>
+        <v>0.04089230181260541</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02337074449027567</v>
+        <v>0.006566362598714983</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0422342407888495</v>
+        <v>0.01192819415019658</v>
       </c>
       <c r="O32" t="n">
-        <v>0.07319077308910404</v>
+        <v>0.05462825615962279</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0591208520187949</v>
+        <v>0.07392831549619033</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0479543393475286</v>
+        <v>0.06770148227751745</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08428040499597592</v>
+        <v>0.05031747091548092</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08314068491960798</v>
+        <v>0.07241852020017495</v>
       </c>
       <c r="T32" t="n">
-        <v>0.007533279836944128</v>
+        <v>0.04561180264008691</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05123816047363063</v>
+        <v>0.03835285789142964</v>
       </c>
       <c r="V32" t="n">
-        <v>0.002837033453629445</v>
+        <v>0.004491114283488545</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08561247890351081</v>
+        <v>0.07506410559348593</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01579079968253521</v>
+        <v>0.02724610152910082</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04452218451715754</v>
+        <v>0.05226703126897973</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.05797997195881206</v>
+        <v>0.0641728219390298</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04104917988581559</v>
+        <v>0.03792977088360113</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03375957942279436</v>
+        <v>0.04519610379844609</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.03625063120518941</v>
+        <v>0.01637555253953559</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1679303086318945</v>
+        <v>0.1499000324197451</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02814796159183565</v>
+        <v>0.01333451721835765</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007940320483760222</v>
+        <v>0.0396054170623798</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01670704525985557</v>
+        <v>0.04236248674774144</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0742244810530111</v>
+        <v>0.04497545664471318</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00444279142463541</v>
+        <v>0.09687893186138362</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0960768413031137</v>
+        <v>0.08157446056441771</v>
       </c>
       <c r="L33" t="n">
-        <v>0.07591807526697371</v>
+        <v>0.006154315627849898</v>
       </c>
       <c r="M33" t="n">
-        <v>0.075842679464128</v>
+        <v>0.008990859145682994</v>
       </c>
       <c r="N33" t="n">
-        <v>0.000888957200848895</v>
+        <v>0.01987254337174887</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07585439845101746</v>
+        <v>0.07729229514039679</v>
       </c>
       <c r="P33" t="n">
-        <v>0.07974917087829385</v>
+        <v>0.1009256286711901</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02283622333478623</v>
+        <v>0.005091920675212551</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0001638484544241812</v>
+        <v>0.02383951559724362</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03544612023542316</v>
+        <v>0.07446740220872111</v>
       </c>
       <c r="T33" t="n">
-        <v>0.09287445868021256</v>
+        <v>0.005946089455438451</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07320326894976747</v>
+        <v>0.06023316878691648</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0395763870361257</v>
+        <v>0.02545647125232153</v>
       </c>
       <c r="W33" t="n">
-        <v>0.09678531177179778</v>
+        <v>0.08744841855042138</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04002915180082935</v>
+        <v>0.0294991311653197</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01338597747246517</v>
+        <v>0.03992135668654335</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01078520288601413</v>
+        <v>0.01362455160829731</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.003331840412460154</v>
+        <v>0.1006805392878431</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03578948658822063</v>
+        <v>0.001824522669859418</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0204554949812015</v>
+        <v>0.02496853781122375</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1322613397500965</v>
+        <v>0.1316201648822907</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06732356910624261</v>
+        <v>0.0658666459829052</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06275642026107349</v>
+        <v>0.02641379848862801</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02409665975288604</v>
+        <v>0.03561746929084939</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04723364196372917</v>
+        <v>0.01262679033885996</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009943627024976249</v>
+        <v>0.003121258173974765</v>
       </c>
       <c r="K34" t="n">
-        <v>0.009801074628596211</v>
+        <v>0.005526391555558141</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01549914178710364</v>
+        <v>0.02385272101388902</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04801464156041869</v>
+        <v>0.06760076847615969</v>
       </c>
       <c r="N34" t="n">
-        <v>0.007260976134542814</v>
+        <v>0.02790189342011442</v>
       </c>
       <c r="O34" t="n">
-        <v>0.005358840075758402</v>
+        <v>0.04462678127116677</v>
       </c>
       <c r="P34" t="n">
-        <v>0.05629068753422628</v>
+        <v>0.03996972798962935</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08091189716374945</v>
+        <v>0.03468026872179925</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07746473640277618</v>
+        <v>0.08055720383660475</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04938414547475706</v>
+        <v>0.08550170196512413</v>
       </c>
       <c r="T34" t="n">
-        <v>0.005932777434741639</v>
+        <v>0.07068964403729794</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0742945444888696</v>
+        <v>0.05219669989574055</v>
       </c>
       <c r="V34" t="n">
-        <v>0.006730980575740742</v>
+        <v>0.01208334771513308</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02782823728535563</v>
+        <v>0.014542289945698</v>
       </c>
       <c r="X34" t="n">
-        <v>0.04532366999774629</v>
+        <v>0.07541846104493535</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.08165973444805852</v>
+        <v>0.08051110701094841</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.09463406158583089</v>
+        <v>0.0579739678588945</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.09107377532111674</v>
+        <v>0.07407880177646657</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01118215999170374</v>
+        <v>0.00864226018962257</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.07814092310363718</v>
+        <v>0.1024463592681746</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1543183220176689</v>
+        <v>0.1379113743070752</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01371379119388899</v>
+        <v>0.003637306597298198</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08695182458171917</v>
+        <v>0.08386797491024829</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02906733808146314</v>
+        <v>0.05518832427006653</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1208972303524584</v>
+        <v>0.08129744193254783</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0220312260438023</v>
+        <v>0.03631449648673345</v>
       </c>
       <c r="K35" t="n">
-        <v>0.009700295294487307</v>
+        <v>0.02589975204625951</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09957558186301947</v>
+        <v>0.01205219538273163</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01841708645842517</v>
+        <v>0.06328500858899129</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04485722382741424</v>
+        <v>0.01444357446923289</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08703346229352202</v>
+        <v>0.02033391952316656</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0401197455768859</v>
+        <v>0.04146791570783996</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.003244106491314317</v>
+        <v>0.04874961353473256</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04317480024435097</v>
+        <v>0.06828043876635252</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1107469622407298</v>
+        <v>0.08027952294058421</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02042619707865613</v>
+        <v>0.04448455739763213</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02914796072744005</v>
+        <v>0.07538120804107266</v>
       </c>
       <c r="V35" t="n">
-        <v>0.04880756827800071</v>
+        <v>0.02025077753975289</v>
       </c>
       <c r="W35" t="n">
-        <v>0.06835887621275517</v>
+        <v>0.06355271649476517</v>
       </c>
       <c r="X35" t="n">
-        <v>0.006106470177626323</v>
+        <v>0.0852628687628411</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02269169238917554</v>
+        <v>0.01786905125524544</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03500254582689723</v>
+        <v>0.02599120409428517</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.007321181207328141</v>
+        <v>0.002670309813859707</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.03260683355863944</v>
+        <v>0.02943982144376046</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1451589308708243</v>
+        <v>0.1300478565098161</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.154669305846989</v>
+        <v>0.1553431625982353</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08054333543946027</v>
+        <v>0.1052072435022536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02713660250819352</v>
+        <v>0.01926628626648321</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001627116372916458</v>
+        <v>0.04084188096329476</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05542664607486604</v>
+        <v>0.01732440947859285</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05643019933416898</v>
+        <v>0.03040247396313619</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003345022604453265</v>
+        <v>0.01095238286513779</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05602712016035159</v>
+        <v>0.09941981689040739</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05416050396755771</v>
+        <v>0.001017497243739814</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06397285698675093</v>
+        <v>0.01140500260929116</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02320143555004979</v>
+        <v>0.04582348330636664</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0947584296898934</v>
+        <v>0.007037164058251987</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02735851388822914</v>
+        <v>0.08327449565324752</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02661577901657835</v>
+        <v>0.04352723351121337</v>
       </c>
       <c r="S36" t="n">
-        <v>0.003239498825842204</v>
+        <v>0.003676454027334217</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02802476340210598</v>
+        <v>0.04663223434778318</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04645353914174481</v>
+        <v>0.05092661385213163</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01652724423034203</v>
+        <v>0.02002825925451915</v>
       </c>
       <c r="W36" t="n">
-        <v>0.006733662950752963</v>
+        <v>0.04754345155579538</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0689483884206506</v>
+        <v>0.03375120450879456</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01099969935965014</v>
+        <v>0.0003758360675927467</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1067287238955806</v>
+        <v>0.08234510945447421</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.09720688546334731</v>
+        <v>0.1080908722162115</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.044534032716514</v>
+        <v>0.09113059440394711</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.0004743575117232557</v>
+        <v>-0.03855189881183218</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2572118715930334</v>
+        <v>0.3185107613590388</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01060986873914372</v>
+        <v>0.05564675945545231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03963369452159884</v>
+        <v>0.1043127604904175</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0007174121326344244</v>
+        <v>0.05859078391205044</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0004049202419052167</v>
+        <v>0.0194772652419779</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04125850360681346</v>
+        <v>0.02367395889519988</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03898261102607228</v>
+        <v>0.00953364923749089</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06445492926301882</v>
+        <v>0.04172794765429389</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02814525083893156</v>
+        <v>0.1051668187174793</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04027349217422381</v>
+        <v>0.03277258562638177</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01141163016738359</v>
+        <v>0.017952672369318</v>
       </c>
       <c r="P37" t="n">
-        <v>0.02618064739271828</v>
+        <v>0.0574007999340311</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.001299313337631193</v>
+        <v>0.05113543510361944</v>
       </c>
       <c r="R37" t="n">
-        <v>0.07955530604954882</v>
+        <v>0.07844869199371154</v>
       </c>
       <c r="S37" t="n">
-        <v>0.05911470564180489</v>
+        <v>0.0878164151632542</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0841508692905764</v>
+        <v>0.02348977745065266</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07697843400710926</v>
+        <v>0.02508912850443573</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1077941740766902</v>
+        <v>0.1000835876144495</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0842419066321944</v>
+        <v>0.06517431904730747</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05910369201310306</v>
+        <v>0.0169993972825539</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.001390927518466015</v>
+        <v>0.009820022880508024</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1039663446508324</v>
+        <v>0.01487338680166933</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.03884743252502085</v>
+        <v>0.0001063587625460405</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.001483934152578428</v>
+        <v>0.0007074778611990129</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.04670055068784153</v>
+        <v>0.03075711236371647</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1798316849213186</v>
+        <v>0.1826664787121823</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01872644646448953</v>
+        <v>0.008380820420646121</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02353250930387026</v>
+        <v>0.04368313144540791</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07033287618517146</v>
+        <v>0.07566540349104005</v>
       </c>
       <c r="I38" t="n">
-        <v>0.007699300824608407</v>
+        <v>0.01809568159713419</v>
       </c>
       <c r="J38" t="n">
-        <v>0.001038233089094993</v>
+        <v>0.04437706317544547</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004675166353794081</v>
+        <v>0.01569307180210571</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02389453499153308</v>
+        <v>0.01278452875757844</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01770401462270154</v>
+        <v>0.03080219038111888</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05593127967343209</v>
+        <v>0.05528184223521337</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0613544883547917</v>
+        <v>0.07475860834382955</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05211611966169272</v>
+        <v>0.01102989189430472</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.03362953152698929</v>
+        <v>0.04026240451083053</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09176433766872991</v>
+        <v>0.09111470578108012</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0194931242744878</v>
+        <v>0.008037436165097665</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03432679872426089</v>
+        <v>0.04148097663579026</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09637234759115149</v>
+        <v>0.03777329734878197</v>
       </c>
       <c r="V38" t="n">
-        <v>0.003766914185362023</v>
+        <v>0.08388161203821932</v>
       </c>
       <c r="W38" t="n">
-        <v>0.008859283685312363</v>
+        <v>0.04412694884502782</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1176666362370214</v>
+        <v>0.09127457003466148</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1249208997291731</v>
+        <v>0.05309054740221238</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08227514061760277</v>
+        <v>0.02517372589946933</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04066941845515362</v>
+        <v>0.06668112732738964</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.009250597779575738</v>
+        <v>0.02655041446761489</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.00740678114589158</v>
+        <v>-0.0468533844501826</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2178707800823177</v>
+        <v>0.2287796254412538</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08828111809666191</v>
+        <v>0.1093106064679387</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01948798551516709</v>
+        <v>0.07772889507301685</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1080187552084672</v>
+        <v>0.07770753526578321</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03914685836554115</v>
+        <v>0.0221899011743518</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01704834181458456</v>
+        <v>0.03859759683146927</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03317555323634921</v>
+        <v>0.07461524051590727</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0005713953156899552</v>
+        <v>0.04289767396421609</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01648687885301456</v>
+        <v>0.008857498008509747</v>
       </c>
       <c r="N39" t="n">
-        <v>0.005173738496657965</v>
+        <v>0.05490232023147351</v>
       </c>
       <c r="O39" t="n">
-        <v>0.007073285440730615</v>
+        <v>0.002705674170442663</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01675160670298229</v>
+        <v>0.006057943871425634</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01871476200624439</v>
+        <v>0.02038527105878122</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09069632941370337</v>
+        <v>0.09097689911258934</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07053942056583518</v>
+        <v>0.02002731814059746</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0562200287437646</v>
+        <v>0.02752527804032591</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1138262680191324</v>
+        <v>0.1105190328454994</v>
       </c>
       <c r="V39" t="n">
-        <v>0.08835396572112007</v>
+        <v>0.10386089075752</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01213250843091563</v>
+        <v>0.01040569400778969</v>
       </c>
       <c r="X39" t="n">
-        <v>0.00506407735293427</v>
+        <v>0.003871406954056055</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02616149047473062</v>
+        <v>0.01209540426868168</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.1072477452706731</v>
+        <v>0.07282067876109538</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0390069760145108</v>
+        <v>0.001281261585340702</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02082091094058899</v>
+        <v>0.01065997889318835</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.02863559196215204</v>
+        <v>-0.03070003599534824</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1969614891714435</v>
+        <v>0.195299595327428</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003189887657790289</v>
+        <v>0.01342363522318813</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1036833977153651</v>
+        <v>0.01466505455515616</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0150848050143079</v>
+        <v>0.0006061893623002289</v>
       </c>
       <c r="I40" t="n">
-        <v>0.003781797467664653</v>
+        <v>0.06160941654187876</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0003171621232075349</v>
+        <v>0.0293473368222331</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03439730529452874</v>
+        <v>0.0156733017173701</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00883639685433266</v>
+        <v>0.03930516855726014</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07456633394228483</v>
+        <v>0.04367742316547391</v>
       </c>
       <c r="N40" t="n">
-        <v>0.04536173692661066</v>
+        <v>0.00104841453124074</v>
       </c>
       <c r="O40" t="n">
-        <v>0.07038354940258822</v>
+        <v>0.05634947313300129</v>
       </c>
       <c r="P40" t="n">
-        <v>0.00847138337289936</v>
+        <v>0.02851161111933187</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02693688210009007</v>
+        <v>0.01274950693600617</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07044112503123215</v>
+        <v>0.05705263291206539</v>
       </c>
       <c r="S40" t="n">
-        <v>0.09451562654742353</v>
+        <v>0.08677052712703692</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01493803845259115</v>
+        <v>0.08576819772954711</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07935455532002265</v>
+        <v>0.1047069964191888</v>
       </c>
       <c r="V40" t="n">
-        <v>0.00760038712499369</v>
+        <v>0.08672272078206036</v>
       </c>
       <c r="W40" t="n">
-        <v>0.05207598405758493</v>
+        <v>0.06095448169093998</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1047094114962926</v>
+        <v>0.09389449001745476</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01305460464230645</v>
+        <v>0.02707737299869251</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.07083919979701839</v>
+        <v>0.06718946943775349</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04973786720752376</v>
+        <v>0.01208007146778747</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.04772256245134082</v>
+        <v>0.0008165077530324956</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1307558692232715</v>
+        <v>0.1313343778615012</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.224705866052243</v>
+        <v>0.2183883223053259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09132169069796248</v>
+        <v>0.09049394212459787</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006119670820715333</v>
+        <v>0.02524455191628835</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0408573311290216</v>
+        <v>0.008143794257698667</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01282541310478141</v>
+        <v>0.01820381640718572</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08130746284358038</v>
+        <v>0.02203524079621001</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05068204651920451</v>
+        <v>0.05499450771403698</v>
       </c>
       <c r="L41" t="n">
-        <v>0.09108651669171834</v>
+        <v>0.02945880340770971</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05563598839666294</v>
+        <v>0.09309022844695285</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0166608446504809</v>
+        <v>0.05402426501278262</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0226367240252638</v>
+        <v>0.02447772852001039</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02368404705887208</v>
+        <v>0.08068392768474915</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.006651989405818931</v>
+        <v>0.0007216061848618015</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03812493908774933</v>
+        <v>0.04294470179779519</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1081040691673256</v>
+        <v>0.03647670565988842</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08687351785030932</v>
+        <v>0.1037173297035203</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03653716056145827</v>
+        <v>0.07998195062742897</v>
       </c>
       <c r="V41" t="n">
-        <v>0.06206466551440541</v>
+        <v>0.09321808874260284</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03543316377112276</v>
+        <v>0.03012020420753978</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02133948490577237</v>
+        <v>0.05757461058684105</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.004774095243561103</v>
+        <v>0.002403196629011395</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05150149201156356</v>
+        <v>0.01936021258658199</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.04558974667077498</v>
+        <v>0.01170794259841956</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01018793987187478</v>
+        <v>0.02092264438728631</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1670133006373962</v>
+        <v>0.1486924436117502</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2031777519292309</v>
+        <v>0.2032032834258615</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0007613136522133638</v>
+        <v>0.0005963067766232761</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07609988768024828</v>
+        <v>0.07734804516973127</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01233947365001724</v>
+        <v>0.03484701633030057</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08770974170868238</v>
+        <v>0.03299401011513134</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0214185441734094</v>
+        <v>0.01973010574499082</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03650489801994873</v>
+        <v>0.03930044197071813</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02053924690309814</v>
+        <v>0.0596934374470369</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05140683939805028</v>
+        <v>0.08760671267816833</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0492760082862977</v>
+        <v>0.02010371900918363</v>
       </c>
       <c r="O42" t="n">
-        <v>0.001390023479825055</v>
+        <v>0.001770371697674089</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05803577550565189</v>
+        <v>0.08758301301219584</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.00536354127825912</v>
+        <v>0.01225754851197748</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07255794766568967</v>
+        <v>0.0707408114836771</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01635731566979546</v>
+        <v>0.03422688813005418</v>
       </c>
       <c r="T42" t="n">
-        <v>0.09235029572938855</v>
+        <v>0.07709961963606878</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06905774122206799</v>
+        <v>0.06723852663036972</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02262069252218421</v>
+        <v>0.00856203967610249</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07659917738174232</v>
+        <v>0.04685175560158364</v>
       </c>
       <c r="X42" t="n">
-        <v>0.03282160021142359</v>
+        <v>0.01474913521064695</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.07197799751926301</v>
+        <v>0.05109122272505214</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.05625300443447983</v>
+        <v>0.0742827268447063</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0530862463068373</v>
+        <v>0.04165407409495518</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.01547268760142647</v>
+        <v>0.03967247150305204</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.05712942873300549</v>
+        <v>0.04233621456857788</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2930512555285754</v>
+        <v>0.4426461355474445</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04369280121139049</v>
+        <v>0.0524800080846933</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0160916540336042</v>
+        <v>0.01696561204946931</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0837218405227064</v>
+        <v>0.07936839069228191</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0005368990858246539</v>
+        <v>0.01388237769008658</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04210461369765157</v>
+        <v>0.0139938052529251</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0008601809668510279</v>
+        <v>0.01571041309520457</v>
       </c>
       <c r="L43" t="n">
-        <v>0.005592960898678749</v>
+        <v>0.01119121572802484</v>
       </c>
       <c r="M43" t="n">
-        <v>0.008971400669482267</v>
+        <v>0.01977335546526532</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01588481182892855</v>
+        <v>0.02820570443701381</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02205923111906762</v>
+        <v>0.04263629533917578</v>
       </c>
       <c r="P43" t="n">
-        <v>0.004198267150186786</v>
+        <v>0.05661181447020245</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.03171254771442081</v>
+        <v>0.06092390238946233</v>
       </c>
       <c r="R43" t="n">
-        <v>0.009058997916622064</v>
+        <v>0.03229411917073965</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08697498098369716</v>
+        <v>0.02628141447772744</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1216455286766818</v>
+        <v>0.0892835644864146</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03116103982562144</v>
+        <v>0.006680592396565969</v>
       </c>
       <c r="V43" t="n">
-        <v>0.04912758669360504</v>
+        <v>0.1204984323682894</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03061707263772431</v>
+        <v>0.05495202960866635</v>
       </c>
       <c r="X43" t="n">
-        <v>0.03549934559714876</v>
+        <v>0.01051543373265632</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.09627929911241996</v>
+        <v>0.09991690978088048</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.1211426432218073</v>
+        <v>0.06050356825492043</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1007223502201975</v>
+        <v>0.08083836169331611</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.04234394621568181</v>
+        <v>0.006492679336018076</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.05021808988384746</v>
+        <v>0.0687494686567721</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1842759889603466</v>
+        <v>0.1865129189707955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002682121965271439</v>
+        <v>0.007274507659290956</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06495930734778758</v>
+        <v>0.04764519508058488</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08691487944690798</v>
+        <v>0.03696374781849832</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02110092577277908</v>
+        <v>0.09866903356378724</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02484166259282704</v>
+        <v>0.04871718861184077</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08237818033657007</v>
+        <v>0.081502131889632</v>
       </c>
       <c r="L44" t="n">
-        <v>0.07295532820368812</v>
+        <v>0.03762600982172177</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06717079394230342</v>
+        <v>0.08877053735831889</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00741655589384155</v>
+        <v>0.01177983658610574</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05336616910117079</v>
+        <v>0.1025986545554734</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07664288879477844</v>
+        <v>0.02334933867346986</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0411488884497514</v>
+        <v>0.000761578809402059</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05944138838382275</v>
+        <v>0.05413554668111466</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01950915323920854</v>
+        <v>0.07464874719999035</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02921280536473674</v>
+        <v>0.02135366457551717</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08631775729295287</v>
+        <v>0.1010576571936945</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04858516773089629</v>
+        <v>0.02152287493479597</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07190614669566935</v>
+        <v>0.01400729803317579</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01627453816015564</v>
+        <v>0.02702224913064673</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01721514838267684</v>
+        <v>0.02581094724763865</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.000135478208450796</v>
+        <v>0.02351438069160004</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.03524216765649544</v>
+        <v>0.04049515524141487</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01458254703725763</v>
+        <v>0.01077371864228531</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0373975350966762</v>
+        <v>0.02361918520750009</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2192680753960028</v>
+        <v>0.1913546483233662</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03000833011166181</v>
+        <v>0.01106889568875663</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08382789739981732</v>
+        <v>0.07552010568434969</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08279072829528392</v>
+        <v>0.08505546783314295</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02097135628345512</v>
+        <v>0.003584796272383132</v>
       </c>
       <c r="J45" t="n">
-        <v>0.004971574487488701</v>
+        <v>0.01773372726104861</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0129309441068683</v>
+        <v>0.0261851269464054</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05149918312226855</v>
+        <v>0.07779699392861376</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05037449044849416</v>
+        <v>0.06630647192252968</v>
       </c>
       <c r="N45" t="n">
-        <v>0.02957649045377293</v>
+        <v>0.01495007677237505</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0835219981225513</v>
+        <v>0.08783211441026102</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01903400352581012</v>
+        <v>0.03273386212968926</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.032409655422439</v>
+        <v>0.008338374955911085</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03671997530231653</v>
+        <v>0.04908707152867151</v>
       </c>
       <c r="S45" t="n">
-        <v>0.001952525350769189</v>
+        <v>0.01667131469670371</v>
       </c>
       <c r="T45" t="n">
-        <v>0.002896109343479191</v>
+        <v>0.04011772761020744</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07080530501583586</v>
+        <v>0.09314259136621228</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09863007866512034</v>
+        <v>0.08779352573698294</v>
       </c>
       <c r="W45" t="n">
-        <v>0.070858369955866</v>
+        <v>0.01825454559491576</v>
       </c>
       <c r="X45" t="n">
-        <v>0.08066439658379876</v>
+        <v>0.06303672444875323</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.08919163677559762</v>
+        <v>0.05672237638250572</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02676227400888306</v>
+        <v>0.0126338016609903</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.01618270943377918</v>
+        <v>0.03885031411185701</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.003419967784642923</v>
+        <v>0.01658399305673379</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.04062660362704599</v>
+        <v>0.05176831567429117</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1426579662578121</v>
+        <v>0.1428126385833535</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09389455783513662</v>
+        <v>0.08989693898752112</v>
       </c>
       <c r="G46" t="n">
-        <v>0.002157209240327906</v>
+        <v>0.0002524709947857722</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06966957272709384</v>
+        <v>0.04362651841618715</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0408153728610271</v>
+        <v>0.006159152166630155</v>
       </c>
       <c r="J46" t="n">
-        <v>0.007538617373900633</v>
+        <v>0.07341552148748348</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0130826240887963</v>
+        <v>0.03349302600934198</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04976006776143214</v>
+        <v>0.04593967296748595</v>
       </c>
       <c r="M46" t="n">
-        <v>0.004478104346592893</v>
+        <v>0.02027624703458354</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01752780921262702</v>
+        <v>0.003141615015529284</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02622166109974999</v>
+        <v>0.01129740708813227</v>
       </c>
       <c r="P46" t="n">
-        <v>0.08095399045999561</v>
+        <v>0.0924307087121916</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02870403870843737</v>
+        <v>0.005317376176620582</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08460545685855338</v>
+        <v>0.08857494089421142</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08684850069662796</v>
+        <v>0.09198249450378927</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02789887694430631</v>
+        <v>0.02921237267191125</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05896484653201377</v>
+        <v>0.05401838893300859</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01236466937716748</v>
+        <v>0.0466753162638299</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08100052857158688</v>
+        <v>0.07220210344830381</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0836848673190531</v>
+        <v>0.06456274148341225</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04001666338488469</v>
+        <v>0.03364433385109407</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07776819389978791</v>
+        <v>0.01699518365424764</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.002997864083999006</v>
+        <v>0.04996334533614586</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.009045906616901923</v>
+        <v>0.02692212390355303</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.04011426250070976</v>
+        <v>-0.03941531594621493</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1644532628818129</v>
+        <v>0.1648150026127483</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02418608922807883</v>
+        <v>0.09530183080011412</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02561134610372121</v>
+        <v>0.0388696874754274</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01357519523895926</v>
+        <v>0.01382490972342008</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00133121954129252</v>
+        <v>0.02256349600061841</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005583539378507306</v>
+        <v>0.01837182706709386</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0337002883839041</v>
+        <v>0.01508998562461768</v>
       </c>
       <c r="L47" t="n">
-        <v>0.004893841337044989</v>
+        <v>0.02913556399317749</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08243582122011063</v>
+        <v>0.04777809229467853</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01296787720487922</v>
+        <v>0.0117481034913304</v>
       </c>
       <c r="O47" t="n">
-        <v>0.05394797792038893</v>
+        <v>0.08297661277894153</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1014338218614245</v>
+        <v>0.03073795079864581</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.1205598573046474</v>
+        <v>0.09317431923737549</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02816845552193922</v>
+        <v>0.04373023741606035</v>
       </c>
       <c r="S47" t="n">
-        <v>0.005134148068598842</v>
+        <v>0.004234838436487848</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06783902814515708</v>
+        <v>0.06042998699910865</v>
       </c>
       <c r="U47" t="n">
-        <v>0.02879702694314725</v>
+        <v>0.01488967657079119</v>
       </c>
       <c r="V47" t="n">
-        <v>0.03626537774552756</v>
+        <v>0.05704192748887853</v>
       </c>
       <c r="W47" t="n">
-        <v>0.003956064340343142</v>
+        <v>0.0004245261595342584</v>
       </c>
       <c r="X47" t="n">
-        <v>0.1191950499987922</v>
+        <v>0.09444586205213097</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0866590258646695</v>
+        <v>0.09418191575641933</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.02145209747795045</v>
+        <v>0.02147981351213016</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.005932759433133664</v>
+        <v>0.02186531025920874</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.1163740917377822</v>
+        <v>0.08770352606380925</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.05160746553427206</v>
+        <v>-0.05339122331374629</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1153791947247525</v>
+        <v>0.1144894423164952</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02655741892512484</v>
+        <v>0.04300504557560565</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01551980829430626</v>
+        <v>0.05146982394328488</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07803638124398815</v>
+        <v>0.1052505143303149</v>
       </c>
       <c r="I48" t="n">
-        <v>0.001398905739798372</v>
+        <v>0.1004745558812875</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06001470962143106</v>
+        <v>0.02201358337412327</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02310132868920143</v>
+        <v>0.02590895672821814</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02847564921128608</v>
+        <v>0.0251194010032182</v>
       </c>
       <c r="M48" t="n">
-        <v>0.09411909898339323</v>
+        <v>0.08116146443997381</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01830315194961395</v>
+        <v>0.01217841671202464</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1100586608313752</v>
+        <v>0.0583393967275826</v>
       </c>
       <c r="P48" t="n">
-        <v>0.09835355784462796</v>
+        <v>0.07923416609407573</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.006362500524532353</v>
+        <v>0.02886849734695032</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01514968908483939</v>
+        <v>0.01797666971687608</v>
       </c>
       <c r="S48" t="n">
-        <v>0.004794671377477483</v>
+        <v>0.07134562602383034</v>
       </c>
       <c r="T48" t="n">
-        <v>0.001160693670585217</v>
+        <v>0.02148117749481038</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07173010093013242</v>
+        <v>0.03072034060700708</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01471170525704432</v>
+        <v>0.001577781922689159</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1136845900448735</v>
+        <v>0.08548743642543664</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07692951944287876</v>
+        <v>0.09604896063184451</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.04341526080577651</v>
+        <v>0.008747236989330134</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.003496423828384631</v>
+        <v>0.01864959026837321</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.04493151866045247</v>
+        <v>0.005459042013606405</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04969465503887648</v>
+        <v>0.009482315749536457</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.08256421516848483</v>
+        <v>-0.1503394814108575</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1478729217696454</v>
+        <v>0.1373507570096112</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09553355729612888</v>
+        <v>0.0709079498890616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03751576870920056</v>
+        <v>0.08536815949934223</v>
       </c>
       <c r="H49" t="n">
-        <v>0.006443878940018609</v>
+        <v>0.06632570904009599</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04957418885210516</v>
+        <v>0.04406544086187362</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00178171113397077</v>
+        <v>0.03150175327333271</v>
       </c>
       <c r="K49" t="n">
-        <v>0.008792412992096684</v>
+        <v>0.02543754929789043</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01458442708247083</v>
+        <v>0.001569534407701915</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04404578123694409</v>
+        <v>0.04490284339297129</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01032707109308991</v>
+        <v>0.02490899717749376</v>
       </c>
       <c r="O49" t="n">
-        <v>0.09698007693457485</v>
+        <v>0.08395944955930168</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02256880065187409</v>
+        <v>0.008148600336161016</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.08562159113808798</v>
+        <v>0.093791390929781</v>
       </c>
       <c r="R49" t="n">
-        <v>0.09321645006751685</v>
+        <v>0.00448421546651297</v>
       </c>
       <c r="S49" t="n">
-        <v>0.06536665368437766</v>
+        <v>0.01973234927808691</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0002672965347923802</v>
+        <v>0.02852645787085488</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01291913563769351</v>
+        <v>0.04579826558094706</v>
       </c>
       <c r="V49" t="n">
-        <v>0.03568334452744711</v>
+        <v>0.07133892163329823</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01125561058670965</v>
+        <v>0.010807915122734</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01501099930795603</v>
+        <v>0.00511988857951838</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09038894925650209</v>
+        <v>0.08049514057233036</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.08922375710944311</v>
+        <v>0.03066751757887385</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.05392309644842228</v>
+        <v>0.04856554180238024</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.05897544077857677</v>
+        <v>0.07357640884945565</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.155711390964151</v>
+        <v>-0.1372552014972804</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1169704035639557</v>
+        <v>0.117999829008946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08136950727341166</v>
+        <v>0.09419190373936183</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1021917313009366</v>
+        <v>0.01069274455218026</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0006437489349082667</v>
+        <v>0.0279880492417596</v>
       </c>
       <c r="I50" t="n">
-        <v>0.008410522387389185</v>
+        <v>0.03920065383413387</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05644117851319159</v>
+        <v>0.09577768249765084</v>
       </c>
       <c r="K50" t="n">
-        <v>0.007328259600849146</v>
+        <v>0.01140681633093857</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02440342952895388</v>
+        <v>0.03345075820890784</v>
       </c>
       <c r="M50" t="n">
-        <v>0.08079871376863099</v>
+        <v>0.07273256221188625</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01022793516628282</v>
+        <v>0.01801926461090568</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02309435974162811</v>
+        <v>0.00171253096204518</v>
       </c>
       <c r="P50" t="n">
-        <v>0.05427655800893334</v>
+        <v>0.08002356310099314</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.07605811355630096</v>
+        <v>0.04828470179339921</v>
       </c>
       <c r="R50" t="n">
-        <v>0.02095381354057039</v>
+        <v>0.01351426503577148</v>
       </c>
       <c r="S50" t="n">
-        <v>0.005326093893130683</v>
+        <v>0.007616997806220299</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01234971418624564</v>
+        <v>0.03769790919648935</v>
       </c>
       <c r="U50" t="n">
-        <v>0.05111659463939614</v>
+        <v>0.06395552315446221</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05061470163335872</v>
+        <v>0.04737482344082602</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06228504296688336</v>
+        <v>0.05645140083002664</v>
       </c>
       <c r="X50" t="n">
-        <v>0.06820883115794861</v>
+        <v>0.06675303299338653</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.00565428889810502</v>
+        <v>0.04565762880096867</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.09566027879448981</v>
+        <v>0.08976654053545728</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.09815586325090535</v>
+        <v>0.02938125902193963</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.004430719257549696</v>
+        <v>0.008349388100289528</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1326565210207497</v>
+        <v>0.1143297693833415</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1253309524269133</v>
+        <v>0.1213411519323568</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1007821921308316</v>
+        <v>0.1082596015288999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03071382437296668</v>
+        <v>0.04165837456677627</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04213320645590584</v>
+        <v>0.02747754320340191</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002266726508896353</v>
+        <v>0.01248884710830055</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03927600952578964</v>
+        <v>0.01975110643416603</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04669019118406997</v>
+        <v>0.005733266913300903</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02934743212203148</v>
+        <v>0.03986003710014944</v>
       </c>
       <c r="M51" t="n">
-        <v>0.05773096423655846</v>
+        <v>0.0820615872974725</v>
       </c>
       <c r="N51" t="n">
-        <v>0.006152230420962468</v>
+        <v>0.009216578323788078</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01090467745479686</v>
+        <v>0.02431177427038317</v>
       </c>
       <c r="P51" t="n">
-        <v>0.09515249907249246</v>
+        <v>0.1061857214912481</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02683464318268274</v>
+        <v>0.1042777785238292</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09436904937141527</v>
+        <v>0.09751108756708976</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01689347286482895</v>
+        <v>0.001726452089477859</v>
       </c>
       <c r="T51" t="n">
-        <v>0.02174793876562249</v>
+        <v>0.02276111272063629</v>
       </c>
       <c r="U51" t="n">
-        <v>0.00706473022088613</v>
+        <v>0.03570296151612179</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01283677742410553</v>
+        <v>0.01158829817383265</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08938736153141534</v>
+        <v>0.03693097766354656</v>
       </c>
       <c r="X51" t="n">
-        <v>0.08799132125697398</v>
+        <v>0.01238760081984482</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.06646723740929253</v>
+        <v>0.05061730542180113</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02538505886434568</v>
+        <v>0.09416784300000128</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.008202353253023155</v>
+        <v>0.02705794352310191</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.08167010237010647</v>
+        <v>0.02826620074283007</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1378309156399299</v>
+        <v>0.1548684740798898</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1205452180744141</v>
+        <v>0.1216704954768868</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01548608767985989</v>
+        <v>0.04939930361576125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07061128583763526</v>
+        <v>0.081996988827885</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02540518824084064</v>
+        <v>0.02336774982335752</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02398890713306892</v>
+        <v>0.02045255597126435</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06148669261365578</v>
+        <v>0.02339141001432545</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02241820822446909</v>
+        <v>0.02016867717065201</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01107264752673445</v>
+        <v>0.05871307923588535</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0241348875524928</v>
+        <v>0.02998575454897867</v>
       </c>
       <c r="N52" t="n">
-        <v>0.02640764975231323</v>
+        <v>0.001206634551832024</v>
       </c>
       <c r="O52" t="n">
-        <v>0.02821358746973934</v>
+        <v>0.09403871086125598</v>
       </c>
       <c r="P52" t="n">
-        <v>0.09320832544280624</v>
+        <v>0.1110332114307612</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08550044207077936</v>
+        <v>0.10750092657232</v>
       </c>
       <c r="R52" t="n">
-        <v>0.007105802077478377</v>
+        <v>0.01355472023815695</v>
       </c>
       <c r="S52" t="n">
-        <v>0.03939647441080136</v>
+        <v>0.02143217223398455</v>
       </c>
       <c r="T52" t="n">
-        <v>0.08904319134882212</v>
+        <v>0.002023693996386641</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0840274301947776</v>
+        <v>0.08779459202903353</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0233994294614681</v>
+        <v>0.07162866117818265</v>
       </c>
       <c r="W52" t="n">
-        <v>0.08932449953252582</v>
+        <v>0.1090268911386425</v>
       </c>
       <c r="X52" t="n">
-        <v>0.03447695696744183</v>
+        <v>0.01352380501462443</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.04721522072924492</v>
+        <v>0.02341201631692958</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.002497784268285381</v>
+        <v>0.001339272169571326</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0908295052373843</v>
+        <v>0.02221493419656406</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.004749796227375353</v>
+        <v>0.01279423886364506</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0536808935918659</v>
+        <v>0.06757346412529057</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1531002990777849</v>
+        <v>0.1526459212972079</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1039136728294583</v>
+        <v>0.1163873812796391</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0925396826976196</v>
+        <v>0.0326467271439578</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01277078362412557</v>
+        <v>0.05868567785707119</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01262609694036494</v>
+        <v>0.003193247409588348</v>
       </c>
       <c r="J53" t="n">
-        <v>0.008019200762162051</v>
+        <v>0.04687736631591128</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02903861853073098</v>
+        <v>0.06406942278164961</v>
       </c>
       <c r="L53" t="n">
-        <v>0.004671844422997996</v>
+        <v>0.005715841849257375</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1016467544437734</v>
+        <v>0.1148761375713721</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01587584055958898</v>
+        <v>0.01019639439538284</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0317994087310893</v>
+        <v>0.08226025260192038</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06793153656169988</v>
+        <v>0.03346005540126176</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06561316679509659</v>
+        <v>0.06258203060655274</v>
       </c>
       <c r="R53" t="n">
-        <v>0.03116540369511409</v>
+        <v>0.0217157881600098</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0542086354399509</v>
+        <v>0.01623780019287738</v>
       </c>
       <c r="T53" t="n">
-        <v>0.002573371163808971</v>
+        <v>0.0006295810657577593</v>
       </c>
       <c r="U53" t="n">
-        <v>0.02196714806132158</v>
+        <v>0.02645847363272244</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01716492235885861</v>
+        <v>0.004424187327289456</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0427965253408167</v>
+        <v>0.0142801518826344</v>
       </c>
       <c r="X53" t="n">
-        <v>0.09227185666806108</v>
+        <v>0.08179877714836271</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1024877990138425</v>
+        <v>0.03001583186287709</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0275120112807987</v>
+        <v>0.09089747557209536</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.04141770748026818</v>
+        <v>0.06576541292675941</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01998801259845117</v>
+        <v>0.01682598501504966</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.07384411119627586</v>
+        <v>0.06220649611159036</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1428707376450917</v>
+        <v>0.1480089324985412</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05585355991688623</v>
+        <v>0.08253898530539679</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00167641326677598</v>
+        <v>0.02103011595467542</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01893592927912548</v>
+        <v>0.07518114841166501</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04373952255563802</v>
+        <v>0.08675450284949561</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003154059679790233</v>
+        <v>0.005283649066083929</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01433432752901017</v>
+        <v>0.0904551888678799</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06512873336210111</v>
+        <v>0.02745261321854628</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06889387253644036</v>
+        <v>0.07980103583588877</v>
       </c>
       <c r="N54" t="n">
-        <v>0.07457382531523638</v>
+        <v>0.005384963606889795</v>
       </c>
       <c r="O54" t="n">
-        <v>0.007295338639910773</v>
+        <v>0.02270648284466976</v>
       </c>
       <c r="P54" t="n">
-        <v>0.05858923335270363</v>
+        <v>0.08322049544570702</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1188549400928521</v>
+        <v>0.03096010624644368</v>
       </c>
       <c r="R54" t="n">
-        <v>0.04357503557066011</v>
+        <v>0.004419797688535117</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03762362858260957</v>
+        <v>0.06391025722090131</v>
       </c>
       <c r="T54" t="n">
-        <v>0.02800049825502818</v>
+        <v>0.002929041052477542</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08630082330146321</v>
+        <v>0.06239374296961164</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05848908061792217</v>
+        <v>0.02595728123342398</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1107922772306458</v>
+        <v>0.09658032066020221</v>
       </c>
       <c r="X54" t="n">
-        <v>0.02826130038652789</v>
+        <v>0.02040157566459249</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.01770574794960277</v>
+        <v>0.03934019445047032</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.05077833087841108</v>
+        <v>0.02252829455499803</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.007416646376406361</v>
+        <v>0.00820789975487682</v>
       </c>
       <c r="AB54" t="n">
-        <v>2.687532425219694e-05</v>
+        <v>0.04256230709656843</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.0455602742494054</v>
+        <v>-0.1095686560659947</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1789078656677095</v>
+        <v>0.1651440355723542</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0980623693107221</v>
+        <v>0.06874369591090264</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08228694979809617</v>
+        <v>0.06673137764555177</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0115039627029142</v>
+        <v>0.008042748070590694</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03632855032193266</v>
+        <v>0.008888951905794262</v>
       </c>
       <c r="J55" t="n">
-        <v>0.004182024816921378</v>
+        <v>0.001295117433285567</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02608385785351775</v>
+        <v>0.03900814866100104</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01996069778523477</v>
+        <v>0.008924318901328011</v>
       </c>
       <c r="M55" t="n">
-        <v>0.09713486674249396</v>
+        <v>0.06918751030863543</v>
       </c>
       <c r="N55" t="n">
-        <v>0.08938979985487965</v>
+        <v>0.05012971980110138</v>
       </c>
       <c r="O55" t="n">
-        <v>0.00619726240860415</v>
+        <v>0.07109447077873308</v>
       </c>
       <c r="P55" t="n">
-        <v>0.05055434742938184</v>
+        <v>0.07548394920751583</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02564439899086203</v>
+        <v>0.05142164093846383</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02774724877738205</v>
+        <v>0.04967209765431548</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01092787307626967</v>
+        <v>0.03172164901422994</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03363024768512627</v>
+        <v>0.05606986030089817</v>
       </c>
       <c r="U55" t="n">
-        <v>0.002530909828590706</v>
+        <v>0.007883466912945145</v>
       </c>
       <c r="V55" t="n">
-        <v>0.05905598813554661</v>
+        <v>0.01313380530756757</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02261893838902365</v>
+        <v>0.05424127780847851</v>
       </c>
       <c r="X55" t="n">
-        <v>0.009415163735292244</v>
+        <v>0.05247006453715999</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.100234794321245</v>
+        <v>0.06533719334240322</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.1028057025494879</v>
+        <v>0.06624963426172921</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0611489443906142</v>
+        <v>0.01161802490911901</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.02255510109586095</v>
+        <v>0.07265127638825022</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.04701755511397501</v>
+        <v>-0.07086766981252733</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.208972425918436</v>
+        <v>0.2089316920495672</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02223456976986161</v>
+        <v>0.02556814779010882</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06818634091827702</v>
+        <v>0.002472020160165954</v>
       </c>
       <c r="H56" t="n">
-        <v>0.009498762206857699</v>
+        <v>0.06810734250448117</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08971473355613314</v>
+        <v>0.03205944251122717</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07163156891813434</v>
+        <v>0.01267966357130838</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03350493998952538</v>
+        <v>0.007090208413515304</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01989974549496883</v>
+        <v>0.0004841636310276945</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04137401186241171</v>
+        <v>0.09417151707537819</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0168844961652622</v>
+        <v>0.0006643321105757317</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02163916107180272</v>
+        <v>0.02326353073741216</v>
       </c>
       <c r="P56" t="n">
-        <v>0.07221789206781896</v>
+        <v>0.08551716656883396</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.08383470911222078</v>
+        <v>0.08596785172232541</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09674109722391473</v>
+        <v>0.02853071027978235</v>
       </c>
       <c r="S56" t="n">
-        <v>0.005566644029599999</v>
+        <v>0.0828732421190725</v>
       </c>
       <c r="T56" t="n">
-        <v>0.002021412187843019</v>
+        <v>0.03670219313188618</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08906347947169577</v>
+        <v>0.05153497942559276</v>
       </c>
       <c r="V56" t="n">
-        <v>0.005626729532074643</v>
+        <v>0.02612394531289132</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03512405010982046</v>
+        <v>0.037418800626191</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08097349752637303</v>
+        <v>0.1000229896904286</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05791684422888275</v>
+        <v>0.05523999744513752</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.01921672698474974</v>
+        <v>0.02234182916745004</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.03153921483708269</v>
+        <v>0.0818758524520771</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.02558937273468891</v>
+        <v>0.03929007355313072</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.04470127403729982</v>
+        <v>0.04987099109548468</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2279706475423229</v>
+        <v>0.23775684728976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09533106627277262</v>
+        <v>0.05879756815558523</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02026504653856681</v>
+        <v>0.03907532385312525</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02944297386965379</v>
+        <v>0.03684378848904618</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03369109196950149</v>
+        <v>0.02713300323238668</v>
       </c>
       <c r="J57" t="n">
-        <v>0.004626062358349015</v>
+        <v>0.01486349726099436</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03424405312168797</v>
+        <v>0.08245727088369095</v>
       </c>
       <c r="L57" t="n">
-        <v>0.004518934845093987</v>
+        <v>0.008493245047258778</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09636439231684393</v>
+        <v>0.09606388892362135</v>
       </c>
       <c r="N57" t="n">
-        <v>0.04566099384614328</v>
+        <v>0.00035978551878055</v>
       </c>
       <c r="O57" t="n">
-        <v>0.09170059832428107</v>
+        <v>0.08468737798441313</v>
       </c>
       <c r="P57" t="n">
-        <v>0.009497917621027188</v>
+        <v>0.02458518044326619</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.04421686255210529</v>
+        <v>0.0176151779758898</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08543140222703736</v>
+        <v>0.07614791237995847</v>
       </c>
       <c r="S57" t="n">
-        <v>0.04026908221831231</v>
+        <v>0.01524915658271387</v>
       </c>
       <c r="T57" t="n">
-        <v>0.07083309693725791</v>
+        <v>0.045477546094917</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02278286069313984</v>
+        <v>0.004891145136397471</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0152177718520292</v>
+        <v>0.03793661746401012</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03691189458639714</v>
+        <v>0.01897923810348663</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0459653355893956</v>
+        <v>0.07900997051880312</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.05018704565663392</v>
+        <v>0.1023930122513744</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.07053177947014229</v>
+        <v>0.09390022350706811</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.03895889066107126</v>
+        <v>0.0336734253102838</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01335084647255658</v>
+        <v>0.001366644882928545</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.06861820902896697</v>
+        <v>0.09004424012311593</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>